--- a/src/attributions/attributions_saliency_traj_93.xlsx
+++ b/src/attributions/attributions_saliency_traj_93.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.005181760992854834</v>
+        <v>0.002197182737290859</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0008977444376796484</v>
+        <v>0.01470100600272417</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0153930401429534</v>
+        <v>0.00112452800385654</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002831871388480067</v>
+        <v>0.004477294161915779</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008339602500200272</v>
+        <v>0.004893937613815069</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00390740018337965</v>
+        <v>0.008104401640594006</v>
       </c>
       <c r="G2" t="n">
-        <v>0.001956868451088667</v>
+        <v>0.001007816405035555</v>
       </c>
       <c r="H2" t="n">
-        <v>0.006901803892105818</v>
+        <v>0.009184668771922588</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004169081337749958</v>
+        <v>0.01850287616252899</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001264971913769841</v>
+        <v>0.003929649014025927</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003667953656986356</v>
+        <v>0.01138195488601923</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01524116657674313</v>
+        <v>0.0003445066977292299</v>
       </c>
       <c r="M2" t="n">
-        <v>0.006120975594967604</v>
+        <v>0.009668821468949318</v>
       </c>
       <c r="N2" t="n">
-        <v>0.004854960367083549</v>
+        <v>0.0004746185149997473</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0001440999330952764</v>
+        <v>0.007334728725254536</v>
       </c>
       <c r="P2" t="n">
-        <v>0.004176325164735317</v>
+        <v>0.002170276828110218</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01243946887552738</v>
+        <v>0.005810567177832127</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01148706488311291</v>
+        <v>0.01563357561826706</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0001312462845817208</v>
+        <v>0.001175550743937492</v>
       </c>
       <c r="T2" t="n">
-        <v>0.00596114294603467</v>
+        <v>0.0003194252494722605</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0008948659524321556</v>
+        <v>0.0004710161592811346</v>
       </c>
       <c r="V2" t="n">
-        <v>0.00036120496224612</v>
+        <v>0.0008142917649820447</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001765185152180493</v>
+        <v>0.0004340833402238786</v>
       </c>
       <c r="X2" t="n">
-        <v>0.002558707725256681</v>
+        <v>0.004686859436333179</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0001237320830114186</v>
+        <v>5.299855547491461e-05</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.003833518363535404</v>
+        <v>0.0009930422529578209</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.002644637133926153</v>
+        <v>0.001151434727944434</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.00254893908277154</v>
+        <v>0.002635821932926774</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.002308486960828304</v>
+        <v>0.001018702518194914</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.003049214603379369</v>
+        <v>0.005596831906586885</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.001563896425068378</v>
+        <v>0.001488667097873986</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.00228114053606987</v>
+        <v>0.001200938131660223</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.001847911276854575</v>
+        <v>0.002020303159952164</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.001645373646169901</v>
+        <v>0.002580555155873299</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.003444286994636059</v>
+        <v>0.002933409297838807</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.009154204279184341</v>
+        <v>0.0007605702849105</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0002389159635640681</v>
+        <v>0.001973774284124374</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.002707245294004679</v>
+        <v>0.001781381200999022</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.004063301719725132</v>
+        <v>0.001800962490960956</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.001808044733479619</v>
+        <v>0.0006208561826497316</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.003192957956343889</v>
+        <v>0.002356456592679024</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0004053945303894579</v>
+        <v>0.0003437655977904797</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.001178685342893004</v>
+        <v>0.001894298009574413</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0001795148709788918</v>
+        <v>0.002819794928655028</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.003348042257130146</v>
+        <v>0.002292407210916281</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.003084074007347226</v>
+        <v>0.002130839042365551</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.004695481155067682</v>
+        <v>0.01517044007778168</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.009528746828436852</v>
+        <v>0.001035744207911193</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.00596786942332983</v>
+        <v>0.0008977926918305457</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.003790479153394699</v>
+        <v>0.01226398441940546</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.007120804861187935</v>
+        <v>0.001280205557122827</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.001052775187417865</v>
+        <v>0.004223289899528027</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.001785833388566971</v>
+        <v>1.859810436144471e-05</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.008196054957807064</v>
+        <v>0.004036882892251015</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0006688566645607352</v>
+        <v>0.001153687131591141</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.002830313751474023</v>
+        <v>0.002016504760831594</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.00269178138114512</v>
+        <v>0.0005538632394745946</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.0003582603530958295</v>
+        <v>0.0001947272685356438</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.002171688014641404</v>
+        <v>0.002549298806115985</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0002562575973570347</v>
+        <v>0.007452248595654964</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.005423613823950291</v>
+        <v>0.00145222048740834</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.007416718639433384</v>
+        <v>0.002605948830023408</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.004763832781463861</v>
+        <v>0.01305309776216745</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0008617499843239784</v>
+        <v>0.001166918082162738</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.002726297127082944</v>
+        <v>0.000924935273360461</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.005262106657028198</v>
+        <v>0.001527933054603636</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.0005172747187316418</v>
+        <v>0.0006882771267555654</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.000945962150581181</v>
+        <v>0.01176565140485764</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.001294913818128407</v>
+        <v>0.001375659834593534</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.000143297016620636</v>
+        <v>0.004399110563099384</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.001050187973305583</v>
+        <v>0.000430839485488832</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.003441805019974709</v>
+        <v>0.004834424704313278</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.003014040412381291</v>
+        <v>0.0009512322722002864</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0006479555740952492</v>
+        <v>0.008133316412568092</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.007994826883077621</v>
+        <v>0.003246520413085818</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.001131725264713168</v>
+        <v>0.001241477439180017</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.004845570772886276</v>
+        <v>0.002013628138229251</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.000403365702368319</v>
+        <v>1.971586607396603e-05</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.003961283713579178</v>
+        <v>0.000472454383270815</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0008681438630446792</v>
+        <v>0.0009401929564774036</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0003046493511646986</v>
+        <v>0.001275325426831841</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0009723238181322813</v>
+        <v>0.0004166954604443163</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0008350856369361281</v>
+        <v>0.002263878006488085</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.002921898383647203</v>
+        <v>0.001385219860821962</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.001510722795501351</v>
+        <v>0.0003872551314998418</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0009556061122566462</v>
+        <v>0.0008198324358090758</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.0006954015698283911</v>
+        <v>0.0005619912408292294</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0005793976015411317</v>
+        <v>0.001314380206167698</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.001166495028883219</v>
+        <v>0.001736477366648614</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0006272258469834924</v>
+        <v>0.004367425106465816</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.00100060342811048</v>
+        <v>0.00613036472350359</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0004230637568980455</v>
+        <v>0.001914943335577846</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.000104060280136764</v>
+        <v>0.0003840735298581421</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.006073628552258015</v>
+        <v>0.005476954393088818</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.007465831004083157</v>
+        <v>0.004244452342391014</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0006047057686373591</v>
+        <v>0.002667474560439587</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0004025489033665508</v>
+        <v>0.001743469736538827</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.002265049144625664</v>
+        <v>0.00564634008333087</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.007279899436980486</v>
+        <v>0.001652894075959921</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.001592004904523492</v>
+        <v>0.0003855589893646538</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0004970621666871011</v>
+        <v>0.002652626484632492</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.003109347075223923</v>
+        <v>0.001080830348655581</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.001080097164958715</v>
+        <v>0.0002347999543417245</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0007273608352988958</v>
+        <v>0.000531989149749279</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.0007543895044364035</v>
+        <v>8.118833648040891e-05</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.000759618473239243</v>
+        <v>0.001281793927773833</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.001079197740182281</v>
+        <v>0.001559057389385998</v>
       </c>
       <c r="DD2" t="n">
-        <v>9.842822328209877e-05</v>
+        <v>0.00341623043641448</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.004940733779221773</v>
+        <v>0.001469287555664778</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.006137850694358349</v>
+        <v>0.0004865564405918121</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.005356635898351669</v>
+        <v>0.003155775601044297</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.00735852587968111</v>
+        <v>0.001444573746994138</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.004478910006582737</v>
+        <v>0.0003444232861511409</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.002212315332144499</v>
+        <v>0.0009301613899879158</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.001949815894477069</v>
+        <v>0.002348656300455332</v>
       </c>
       <c r="DL2" t="n">
-        <v>2.12073209695518e-05</v>
+        <v>0.007699355483055115</v>
       </c>
       <c r="DM2" t="n">
-        <v>7.535400800406933e-05</v>
+        <v>0.001286535174585879</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0005924769793637097</v>
+        <v>0.00105671922210604</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.002050020266324282</v>
+        <v>0.0006949357921257615</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.00416606804355979</v>
+        <v>0.00190498516894877</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0001371811813442037</v>
+        <v>0.001273403526283801</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.002616529120132327</v>
+        <v>0.0004568524891510606</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.001453341916203499</v>
+        <v>0.0006068070651963353</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.001390270888805389</v>
+        <v>0.002778603695333004</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.001367610297165811</v>
+        <v>0.0006212172447703779</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0001511905575171113</v>
+        <v>0.00310213677585125</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.001241530873812735</v>
+        <v>0.000426330283517018</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.001930502941831946</v>
+        <v>0.004870300181210041</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.003018246730789542</v>
+        <v>0.0007655880763195455</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.001532102003693581</v>
+        <v>0.002307283692061901</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0008718413882888854</v>
+        <v>0.0002739006013143808</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.001781841740012169</v>
+        <v>0.002313196891918778</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.001743174623697996</v>
+        <v>0.001687836600467563</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.00523658050224185</v>
+        <v>0.003762399312108755</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0008732352871447802</v>
+        <v>0.0008422406390309334</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0002030928153544664</v>
+        <v>0.001165084075182676</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.00077085878001526</v>
+        <v>0.002332380274310708</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.00126887927763164</v>
+        <v>0.002345012500882149</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.001504645217210054</v>
+        <v>0.0008320336928591132</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.003787301480770111</v>
+        <v>0.0005429810262285173</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.003923556767404079</v>
+        <v>1.813904964365065e-05</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.0007161444518715143</v>
+        <v>0.002832681871950626</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.001029796665534377</v>
+        <v>0.0005733330035582185</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.001097508706152439</v>
+        <v>0.004360349848866463</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0003470599185675383</v>
+        <v>0.0008539253030903637</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.002191781299188733</v>
+        <v>0.002526266500353813</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0006283214315772057</v>
+        <v>0.00118266511708498</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003327453043311834</v>
+        <v>0.00074890156975016</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.001358558656647801</v>
+        <v>0.003388633485883474</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.0004103002138435841</v>
+        <v>0.002929390175268054</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.002675115130841732</v>
+        <v>0.002608932321891189</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.000542682537343353</v>
+        <v>0.003182621207088232</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.002017371822148561</v>
+        <v>0.003481770167127252</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0004214466898702085</v>
+        <v>0.0002469988539814949</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0006492711254395545</v>
+        <v>0.003117293119430542</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.002869698219001293</v>
+        <v>0.0009360573021695018</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.001853887923061848</v>
+        <v>0.0008531403727829456</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0003735019126906991</v>
+        <v>0.000161982185090892</v>
       </c>
       <c r="FC2" t="n">
-        <v>5.7704106438905e-05</v>
+        <v>0.0008931620395742357</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.001082234433852136</v>
+        <v>0.001408530515618622</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.001214145217090845</v>
+        <v>0.001037158188410103</v>
       </c>
       <c r="FF2" t="n">
-        <v>7.583320257253945e-05</v>
+        <v>0.003520111786201596</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.003165658563375473</v>
+        <v>0.0001891020510811359</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0001475120370741934</v>
+        <v>0.0009602524805814028</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0002745402744039893</v>
+        <v>0.001156927086412907</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.001021225936710835</v>
+        <v>0.002401224337518215</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.001481880783103406</v>
+        <v>0.005291232373565435</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.002412950620055199</v>
+        <v>0.0005869920132681727</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0009635264868848026</v>
+        <v>0.0005436500068753958</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.00201733666472137</v>
+        <v>0.001508030225522816</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0008742235950194299</v>
+        <v>0.000473018764751032</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.01091928873211145</v>
+        <v>0.001019554445520043</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.001577438786625862</v>
+        <v>0.002338862046599388</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.00458662211894989</v>
+        <v>0.001123370137065649</v>
       </c>
       <c r="FS2" t="n">
-        <v>2.683780621737242e-05</v>
+        <v>0.001230697729624808</v>
       </c>
       <c r="FT2" t="n">
-        <v>2.516712993383408e-05</v>
+        <v>0.003916291054338217</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.00308549776673317</v>
+        <v>7.669078331673518e-05</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.005465219728648663</v>
+        <v>0.006079701706767082</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.001433359226211905</v>
+        <v>0.0004634053912013769</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.001001767697744071</v>
+        <v>0.0003328084421809763</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.001504841377027333</v>
+        <v>0.002473288215696812</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0001799642632249743</v>
+        <v>0.001287231803871691</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.002488129772245884</v>
+        <v>0.0008256395813077688</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.001705591101199389</v>
+        <v>0.003265263047069311</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.003694841871038079</v>
+        <v>0.001548272557556629</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.005665257573127747</v>
+        <v>0.003783971536904573</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.001520066754892468</v>
+        <v>0.002703017089515924</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.002092463197186589</v>
+        <v>0.0005961038405075669</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.002998812589794397</v>
+        <v>0.0006036674021743238</v>
       </c>
     </row>
     <row r="3">
@@ -2711,571 +2711,571 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01095228455960751</v>
+        <v>0.002676642034202814</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01287269219756126</v>
+        <v>0.06291462481021881</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03457819297909737</v>
+        <v>0.007851956412196159</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01282142754644156</v>
+        <v>0.01926598139107227</v>
       </c>
       <c r="E5" t="n">
-        <v>0.006017526146024466</v>
+        <v>0.00480373203754425</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0006682973471470177</v>
+        <v>0.002983855083584785</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01189456880092621</v>
+        <v>0.01629071310162544</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03157681599259377</v>
+        <v>0.009888146072626114</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01547465194016695</v>
+        <v>0.007429484277963638</v>
       </c>
       <c r="J5" t="n">
-        <v>0.005115649197250605</v>
+        <v>0.01129540801048279</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02086569182574749</v>
+        <v>0.04993882030248642</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05811651796102524</v>
+        <v>0.009877054952085018</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02864892967045307</v>
+        <v>0.02900390140712261</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02297310531139374</v>
+        <v>0.01140040718019009</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02443990856409073</v>
+        <v>0.01415239274501801</v>
       </c>
       <c r="P5" t="n">
-        <v>0.008052668534219265</v>
+        <v>0.01476407796144485</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0415714867413044</v>
+        <v>0.000594395911321044</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01390734501183033</v>
+        <v>0.004309359937906265</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01927190832793713</v>
+        <v>0.007595892064273357</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0243074968457222</v>
+        <v>0.01055878959596157</v>
       </c>
       <c r="U5" t="n">
-        <v>0.009294214658439159</v>
+        <v>0.003486641217023134</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001029481180012226</v>
+        <v>0.006506329402327538</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01151774264872074</v>
+        <v>0.01021679490804672</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0118331415578723</v>
+        <v>0.01071799173951149</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.005273420363664627</v>
+        <v>0.000458520429674536</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0173761323094368</v>
+        <v>0.005224571563303471</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.006953186355531216</v>
+        <v>0.003070375649258494</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0005399181973189116</v>
+        <v>0.00706902239471674</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.001253748312592506</v>
+        <v>0.01408017240464687</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.004362078383564949</v>
+        <v>0.008866086602210999</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.006853233091533184</v>
+        <v>0.003273553214967251</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01743453927338123</v>
+        <v>0.002251852303743362</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.001373891020193696</v>
+        <v>0.002446662168949842</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.001870840787887573</v>
+        <v>6.22159568592906e-05</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.007760071661323309</v>
+        <v>0.01327828783541918</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.01230939663946629</v>
+        <v>0.0001755442644935101</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.002179520670324564</v>
+        <v>0.005072783678770065</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.006695615593343973</v>
+        <v>0.007742507383227348</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.001239850535057485</v>
+        <v>0.0005145889008417726</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.001285335747525096</v>
+        <v>0.005943446420133114</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.008749128319323063</v>
+        <v>0.003665287746116519</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.004915076307952404</v>
+        <v>0.00261736148968339</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.003794303396716714</v>
+        <v>0.001582703087478876</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0102428300306201</v>
+        <v>0.001497016055509448</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.002476342022418976</v>
+        <v>0.004446629900485277</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.004147800151258707</v>
+        <v>0.00648416904732585</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.003226255998015404</v>
+        <v>0.0418308787047863</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.00930381752550602</v>
+        <v>0.00691823149099946</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.01319660618901253</v>
+        <v>0.01073961332440376</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.01679549738764763</v>
+        <v>0.00964589137583971</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.02894414961338043</v>
+        <v>0.0006925826892256737</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.008134338073432446</v>
+        <v>0.01742888987064362</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.03216396644711494</v>
+        <v>0.002840186702087522</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.002737172180786729</v>
+        <v>0.002472108695656061</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.01597758010029793</v>
+        <v>0.0005734981968998909</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.0009997098241001368</v>
+        <v>0.01628382876515388</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.009412313811480999</v>
+        <v>0.01549089327454567</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.01130829565227032</v>
+        <v>0.007752100471407175</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.01368139032274485</v>
+        <v>0.01273346412926912</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.004741698037832975</v>
+        <v>0.003792742500081658</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.007689851336181164</v>
+        <v>0.003363244934007525</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.01232404261827469</v>
+        <v>0.003696734085679054</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.01284416858106852</v>
+        <v>0.004938366822898388</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.0006983769126236439</v>
+        <v>0.003709201235324144</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.005381609778851271</v>
+        <v>0.003623900003731251</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.01384899951517582</v>
+        <v>0.003370295045897365</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.003292453940957785</v>
+        <v>0.003906331025063992</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0212915726006031</v>
+        <v>0.01247604563832283</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.003757156198844314</v>
+        <v>0.00701481755822897</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.0005951307248324156</v>
+        <v>0.007178280036896467</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.00241847219876945</v>
+        <v>0.01655481941998005</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.0006690861191600561</v>
+        <v>0.0007916155736893415</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.004365463741123676</v>
+        <v>0.001598670147359371</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.02049952931702137</v>
+        <v>0.01990953274071217</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.004954302683472633</v>
+        <v>0.008578408509492874</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.0112338699400425</v>
+        <v>0.004945576190948486</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.01001233607530594</v>
+        <v>0.004858569242060184</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.006678163073956966</v>
+        <v>0.0001560533419251442</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.002822964685037732</v>
+        <v>0.007339333184063435</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.01449162978678942</v>
+        <v>0.00754594849422574</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.01370190922170877</v>
+        <v>0.001601272379048169</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.002946666441857815</v>
+        <v>0.0004148904117755592</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.009838429279625416</v>
+        <v>0.01111866626888514</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.006838995963335037</v>
+        <v>0.003885925048962235</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.00200100033544004</v>
+        <v>0.001605863450095057</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.006723884958773851</v>
+        <v>0.0009452616795897484</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.005942354444414377</v>
+        <v>0.0007924630772322416</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.007352035492658615</v>
+        <v>0.004567216150462627</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.01292481645941734</v>
+        <v>0.001454985816963017</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.001819248776882887</v>
+        <v>0.002144670346751809</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.005508203990757465</v>
+        <v>0.01138958148658276</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.004114702343940735</v>
+        <v>0.008847663179039955</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.01059089042246342</v>
+        <v>0.0001062854571500793</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.005223130341619253</v>
+        <v>0.01658603735268116</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.0007576632779091597</v>
+        <v>0.01306168362498283</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.003904074896126986</v>
+        <v>0.001530249137431383</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.02117839455604553</v>
+        <v>0.003923847805708647</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.02005977369844913</v>
+        <v>0.0006615739548578858</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.01321578118950129</v>
+        <v>0.001041424577124417</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.002445270540192723</v>
+        <v>0.001193917589262128</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.007347054313868284</v>
+        <v>0.01049742475152016</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.004322535824030638</v>
+        <v>0.004386082757264376</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.002139380434527993</v>
+        <v>0.005826829932630062</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.009539871476590633</v>
+        <v>0.003374757478013635</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.007477739360183477</v>
+        <v>0.0005737001774832606</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.003469221759587526</v>
+        <v>0.005304684396833181</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.008971846662461758</v>
+        <v>0.001021848642267287</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.004448133986443281</v>
+        <v>0.002752469619736075</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.002521609887480736</v>
+        <v>0.00725703127682209</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.01276481710374355</v>
+        <v>0.003781178034842014</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.008152704685926437</v>
+        <v>0.003466962836682796</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.001274952199310064</v>
+        <v>0.00258515146560967</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.001744688954204321</v>
+        <v>0.003238766919821501</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.002853201236575842</v>
+        <v>0.002312399446964264</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.005557570606470108</v>
+        <v>0.005140393041074276</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.0218095351010561</v>
+        <v>0.009450624696910381</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.01414971239864826</v>
+        <v>0.006360331550240517</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.005308711901307106</v>
+        <v>0.008477079682052135</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.00789358839392662</v>
+        <v>0.001410310389474034</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.01088914461433887</v>
+        <v>0.006945824716240168</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.006402031518518925</v>
+        <v>0.004306789021939039</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.009259804151952267</v>
+        <v>0.005186002235859632</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.003975704312324524</v>
+        <v>0.002406086307018995</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.009685848839581013</v>
+        <v>0.00316143874078989</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.02849993854761124</v>
+        <v>0.0004736646078526974</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.007420696783810854</v>
+        <v>0.00372991943731904</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.009195638820528984</v>
+        <v>0.0008486201404593885</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.01310724206268787</v>
+        <v>0.0147324800491333</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0008363620727322996</v>
+        <v>0.0003000034776050597</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.00135492195840925</v>
+        <v>0.005323608871549368</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.003096134401857853</v>
+        <v>0.00592177826911211</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.004657233133912086</v>
+        <v>0.001852419460192323</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.01099455263465643</v>
+        <v>0.000920799735467881</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.01523309666663408</v>
+        <v>0.00630151154473424</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.005913619883358479</v>
+        <v>0.00117273791693151</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.0108368955552578</v>
+        <v>0.0004265679745003581</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.001666881144046783</v>
+        <v>0.00855609867721796</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.01347833871841431</v>
+        <v>0.003473855089396238</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.0117387231439352</v>
+        <v>0.003086668439209461</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.001025739940814674</v>
+        <v>2.002157270908356e-05</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.025143813341856</v>
+        <v>0.001195107470266521</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.002686618594452739</v>
+        <v>0.009130467660725117</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.003295735223218799</v>
+        <v>0.00077817402780056</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.0004404538776725531</v>
+        <v>0.000309434806695208</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.003451383206993341</v>
+        <v>0.006240691523998976</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.01967359706759453</v>
+        <v>0.005837966222316027</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.009936160407960415</v>
+        <v>0.007641651667654514</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.005636009853333235</v>
+        <v>0.00552262319251895</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.01247582025825977</v>
+        <v>0.008537513203918934</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.01299540419131517</v>
+        <v>0.0008465307764708996</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.001001282595098019</v>
+        <v>0.005060906521975994</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.0290790181607008</v>
+        <v>0.005761375650763512</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.002222536131739616</v>
+        <v>0.0006123872008174658</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.002269541379064322</v>
+        <v>0.003118850523605943</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.00353808980435133</v>
+        <v>0.01134834066033363</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.006533374544233084</v>
+        <v>0.002642727922648191</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.007287315558642149</v>
+        <v>0.002953191753476858</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.006905790884047747</v>
+        <v>0.004517857450991869</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.003650779835879803</v>
+        <v>0.002162936609238386</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.002832608763128519</v>
+        <v>0.006081072613596916</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.01040138490498066</v>
+        <v>0.002555564511567354</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.004564334638416767</v>
+        <v>0.003650611732155085</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.006693936884403229</v>
+        <v>0.003865610342472792</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.003972509875893593</v>
+        <v>0.001045469660311937</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.0004511096340138465</v>
+        <v>0.006544294767081738</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.009994499385356903</v>
+        <v>0.003753144294023514</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.01404200866818428</v>
+        <v>0.009640101343393326</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.01466635428369045</v>
+        <v>0.00546647934243083</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.008054677397012711</v>
+        <v>0.0007321698940359056</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.01392744854092598</v>
+        <v>0.006051946897059679</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.01316437963396311</v>
+        <v>0.006633526645600796</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.01422750856727362</v>
+        <v>0.008294151164591312</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.0021408018656075</v>
+        <v>0.01165605243295431</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.001078782603144646</v>
+        <v>0.004162175580859184</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.002139619551599026</v>
+        <v>0.004332254640758038</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.01301353517919779</v>
+        <v>0.01353353075683117</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.01185034215450287</v>
+        <v>0.005245252978056669</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.01053494215011597</v>
+        <v>0.0004275485407561064</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.008511961437761784</v>
+        <v>0.0143135879188776</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.01573375426232815</v>
+        <v>0.003392463084310293</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.004384778439998627</v>
+        <v>0.01248396839946508</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.008638123981654644</v>
+        <v>0.003102938644587994</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.009830435737967491</v>
+        <v>0.003624393371865153</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.005023146979510784</v>
+        <v>0.002000644104555249</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.01517772953957319</v>
+        <v>0.003338456153869629</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.01347109768539667</v>
+        <v>0.009797144681215286</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.01361144799739122</v>
+        <v>0.0136469341814518</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.001723448978736997</v>
+        <v>0.008498247712850571</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.00410157535225153</v>
+        <v>0.004627140704542398</v>
       </c>
     </row>
     <row r="6">
@@ -3849,1140 +3849,1140 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.202386736869812</v>
+        <v>0.01338135451078415</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01902936026453972</v>
+        <v>0.2876779437065125</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3137449026107788</v>
+        <v>0.003199849277734756</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1454508006572723</v>
+        <v>0.2175747603178024</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1439598947763443</v>
+        <v>0.02657694742083549</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05835061892867088</v>
+        <v>0.004196645691990852</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1005972623825073</v>
+        <v>0.04116190224885941</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06346273422241211</v>
+        <v>0.02204380184412003</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07001347094774246</v>
+        <v>0.04547600448131561</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2036436498165131</v>
+        <v>0.04630676656961441</v>
       </c>
       <c r="K7" t="n">
-        <v>0.005000913515686989</v>
+        <v>0.2478113025426865</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3424909710884094</v>
+        <v>0.007814943790435791</v>
       </c>
       <c r="M7" t="n">
-        <v>0.08479533344507217</v>
+        <v>0.1935975849628448</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02805910259485245</v>
+        <v>0.05999763309955597</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05260296165943146</v>
+        <v>0.03501420840620995</v>
       </c>
       <c r="P7" t="n">
-        <v>0.06078290939331055</v>
+        <v>0.02124430611729622</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.1594898253679276</v>
+        <v>0.03996224328875542</v>
       </c>
       <c r="R7" t="n">
-        <v>0.1335207968950272</v>
+        <v>0.03032897040247917</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0347687304019928</v>
+        <v>0.01373658049851656</v>
       </c>
       <c r="T7" t="n">
-        <v>0.04899270087480545</v>
+        <v>0.03326387330889702</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02970030531287193</v>
+        <v>0.01338101737201214</v>
       </c>
       <c r="V7" t="n">
-        <v>0.03522348403930664</v>
+        <v>0.01926138252019882</v>
       </c>
       <c r="W7" t="n">
-        <v>0.04764838144183159</v>
+        <v>0.02869841456413269</v>
       </c>
       <c r="X7" t="n">
-        <v>0.01572639122605324</v>
+        <v>0.01974463276565075</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.02155953645706177</v>
+        <v>0.0418093204498291</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.01239937078207731</v>
+        <v>0.03117541782557964</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.01837380230426788</v>
+        <v>0.02577736414968967</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.00107850506901741</v>
+        <v>0.0469229519367218</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.01033129543066025</v>
+        <v>0.03028169274330139</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0502227395772934</v>
+        <v>0.007475825492292643</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.02385242655873299</v>
+        <v>0.006724309176206589</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.05993830040097237</v>
+        <v>0.02639546059072018</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.008522814139723778</v>
+        <v>0.03348115459084511</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.03607618063688278</v>
+        <v>0.01788219250738621</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.05779393017292023</v>
+        <v>0.027895487844944</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.08319331705570221</v>
+        <v>0.004924546927213669</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.05786450207233429</v>
+        <v>0.00790124200284481</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.06316706538200378</v>
+        <v>0.0195075049996376</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.05110213905572891</v>
+        <v>0.008373679593205452</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.04034179076552391</v>
+        <v>0.006684195250272751</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.02653641253709793</v>
+        <v>0.009706554003059864</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0005537667311728001</v>
+        <v>0.01207839231938124</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.008302219212055206</v>
+        <v>0.0227404423058033</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.0688711479306221</v>
+        <v>0.01664630509912968</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.002668472006917</v>
+        <v>0.00952954962849617</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.1249790042638779</v>
+        <v>0.04003091901540756</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.1168671622872353</v>
+        <v>0.1713288426399231</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.1554057449102402</v>
+        <v>0.03894352540373802</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.05535126477479935</v>
+        <v>0.06257995218038559</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.06128668785095215</v>
+        <v>0.004824605770409107</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.09171756356954575</v>
+        <v>0.01970211043953896</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.05700511112809181</v>
+        <v>0.003856332739815116</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.06058986112475395</v>
+        <v>0.03081298246979713</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.02382842637598515</v>
+        <v>0.005805870518088341</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.009831547737121582</v>
+        <v>0.01087633147835732</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.005596192553639412</v>
+        <v>0.05984244495630264</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.09590010344982147</v>
+        <v>0.05625789240002632</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.05293719470500946</v>
+        <v>0.04238117858767509</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.1572838574647903</v>
+        <v>0.04769353196024895</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.0603049136698246</v>
+        <v>0.006992608308792114</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.05056004971265793</v>
+        <v>0.03629975765943527</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.08375214785337448</v>
+        <v>0.04378335922956467</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.05331183224916458</v>
+        <v>0.01251810323446989</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.04120998829603195</v>
+        <v>0.04192723333835602</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.04553991183638573</v>
+        <v>0.002785959979519248</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.09368585050106049</v>
+        <v>0.001630673883482814</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.003584600985050201</v>
+        <v>0.01508290600031614</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.03851400315761566</v>
+        <v>0.02726004645228386</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.09795385599136353</v>
+        <v>0.0241120308637619</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.00589391216635704</v>
+        <v>0.00493680639192462</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.03694567829370499</v>
+        <v>0.02715788036584854</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.003659362904727459</v>
+        <v>0.009062136523425579</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.1245936527848244</v>
+        <v>0.0252427663654089</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.04801050573587418</v>
+        <v>0.08812942355871201</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.07843887805938721</v>
+        <v>0.01271258201450109</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.04472929611802101</v>
+        <v>0.03675071895122528</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.01435409113764763</v>
+        <v>0.02648786269128323</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.1068453937768936</v>
+        <v>0.008029616437852383</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.01301372516900301</v>
+        <v>0.01966993138194084</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.02936396561563015</v>
+        <v>0.003998119384050369</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.04546814039349556</v>
+        <v>0.01240590400993824</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.037846639752388</v>
+        <v>0.01020957436412573</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.06944172084331512</v>
+        <v>0.04022573307156563</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.05534927546977997</v>
+        <v>0.01735616102814674</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.03116130642592907</v>
+        <v>0.02722555957734585</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.002813048660755157</v>
+        <v>0.01122325100004673</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.01358835026621819</v>
+        <v>0.005812071263790131</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.02639083750545979</v>
+        <v>0.008166933432221413</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.0110994977876544</v>
+        <v>0.0009750537574291229</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.01170183066278696</v>
+        <v>0.01630330830812454</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.03049097023904324</v>
+        <v>0.05012381821870804</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.0009930450469255447</v>
+        <v>0.003167886286973953</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.02334353514015675</v>
+        <v>0.002292038640007377</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.007689137011766434</v>
+        <v>0.05491703748703003</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.0429673008620739</v>
+        <v>0.05081404000520706</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.008057623170316219</v>
+        <v>0.01253231707960367</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.08121757209300995</v>
+        <v>0.03684628009796143</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.0340830534696579</v>
+        <v>0.04083635658025742</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.0138053297996521</v>
+        <v>0.003869364038109779</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.03176077455282211</v>
+        <v>0.005143217742443085</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.0756690502166748</v>
+        <v>0.04042371362447739</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.05850516259670258</v>
+        <v>0.0236945915967226</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.02540867775678635</v>
+        <v>0.03672231733798981</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.02789992839097977</v>
+        <v>0.01463727466762066</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.009973384439945221</v>
+        <v>0.007870950736105442</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.02448839321732521</v>
+        <v>0.01102122105658054</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.01361859869211912</v>
+        <v>0.006327283568680286</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.0008021400426514447</v>
+        <v>0.01263197045773268</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.03896674886345863</v>
+        <v>0.01189146470278502</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.1780776381492615</v>
+        <v>0.01027327589690685</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.03427460789680481</v>
+        <v>0.02835986949503422</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.09342752397060394</v>
+        <v>0.08743949979543686</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.08377157151699066</v>
+        <v>0.02533295378088951</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.06410305202007294</v>
+        <v>0.001396369189023972</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.04422493278980255</v>
+        <v>0.02774085476994514</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.007264919579029083</v>
+        <v>0.0152175035327673</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.08746247738599777</v>
+        <v>0.02900909073650837</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.04114105924963951</v>
+        <v>0.01137954276055098</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.06176978349685669</v>
+        <v>0.005936973262578249</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.02799079567193985</v>
+        <v>0.0171449389308691</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.01035862043499947</v>
+        <v>0.01256691385060549</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.04418763518333435</v>
+        <v>0.04163497686386108</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.03021008521318436</v>
+        <v>0.02555341459810734</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.01413764990866184</v>
+        <v>0.003896711161360145</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.02269567176699638</v>
+        <v>0.02471047639846802</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.003746589180082083</v>
+        <v>0.02432707883417606</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.03220727294683456</v>
+        <v>0.0009805229492485523</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.005170556716620922</v>
+        <v>3.1824572943151e-05</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.07024574279785156</v>
+        <v>0.02326422929763794</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.00745142437517643</v>
+        <v>0.02584988810122013</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.1266409456729889</v>
+        <v>0.005586890503764153</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.01820425875484943</v>
+        <v>0.007410514168441296</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.002818001434206963</v>
+        <v>0.01520989276468754</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.06088250875473022</v>
+        <v>0.001604098593816161</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.03711086884140968</v>
+        <v>0.01054886169731617</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.04915327951312065</v>
+        <v>0.005251821130514145</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.02684580720961094</v>
+        <v>0.0384553074836731</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.06151594221591949</v>
+        <v>0.03179709613323212</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.007020633667707443</v>
+        <v>0.02754330448806286</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.01584500446915627</v>
+        <v>0.0213116817176342</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.0844750702381134</v>
+        <v>0.02079313062131405</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.001753299497067928</v>
+        <v>0.009753248654305935</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.01604895852506161</v>
+        <v>0.00442925002425909</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.01934484951198101</v>
+        <v>0.008585165254771709</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.0003186464309692383</v>
+        <v>4.222989082336426e-05</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.07651199400424957</v>
+        <v>0.03028666600584984</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.04263641685247421</v>
+        <v>0.03847163915634155</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.005814783275127411</v>
+        <v>0.01452770549803972</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.07234980911016464</v>
+        <v>0.007304694503545761</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.03400140628218651</v>
+        <v>0.003747105598449707</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.06898045539855957</v>
+        <v>0.01964389905333519</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.004063877277076244</v>
+        <v>0.0298666600137949</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.004865923896431923</v>
+        <v>0.0009225013200193644</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.04616289958357811</v>
+        <v>0.001659352332353592</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.05703688412904739</v>
+        <v>0.04200754687190056</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.06312351673841476</v>
+        <v>0.01528994552791119</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.02049740962684155</v>
+        <v>0.02994515374302864</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.02304761484265327</v>
+        <v>0.01490890886634588</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.01141170877963305</v>
+        <v>0.009528915397822857</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.02822043560445309</v>
+        <v>0.01014703884720802</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.02092775329947472</v>
+        <v>0.001034644898027182</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.001098078675568104</v>
+        <v>0.01907085999846458</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.06982803344726562</v>
+        <v>0.0004068640992045403</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.01394065003842115</v>
+        <v>0.02375978417694569</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.01001660525798798</v>
+        <v>0.02048211731016636</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.1009548678994179</v>
+        <v>0.03286155313253403</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.09599336236715317</v>
+        <v>0.005644232500344515</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.03322956711053848</v>
+        <v>0.04002071917057037</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.02244932390749454</v>
+        <v>0.01188462506979704</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.03639888763427734</v>
+        <v>0.008453143760561943</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.0429830476641655</v>
+        <v>0.0184784010052681</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.04169577732682228</v>
+        <v>0.00271746888756752</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.1375834792852402</v>
+        <v>0.04936353862285614</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.01668135821819305</v>
+        <v>0.0313132181763649</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.1795969605445862</v>
+        <v>0.02148035913705826</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.002334579825401306</v>
+        <v>0.006340080872178078</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.05170527100563049</v>
+        <v>0.000197472982108593</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.01782198995351791</v>
+        <v>0.00186564214527607</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.02948512136936188</v>
+        <v>0.001642266288399696</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.00320742093026638</v>
+        <v>0.03492588177323341</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.009914301335811615</v>
+        <v>0.04958118498325348</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.006952626630663872</v>
+        <v>0.01659896597266197</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.02424014359712601</v>
+        <v>0.01310318522155285</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.04943288117647171</v>
+        <v>0.01092191226780415</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.1000867560505867</v>
+        <v>0.01583078689873219</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.05465897917747498</v>
+        <v>0.04981895536184311</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.03020032681524754</v>
+        <v>0.08005426824092865</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.01040276139974594</v>
+        <v>0.00824269000440836</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.02682274580001831</v>
+        <v>0.02477885782718658</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.004791659768670797</v>
+        <v>0.05820314213633537</v>
       </c>
       <c r="B8" t="n">
-        <v>0.005373604129999876</v>
+        <v>0.427114874124527</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04742221534252167</v>
+        <v>0.03133897855877876</v>
       </c>
       <c r="D8" t="n">
-        <v>0.001218936871737242</v>
+        <v>0.2633202373981476</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0232461541891098</v>
+        <v>0.0621027946472168</v>
       </c>
       <c r="F8" t="n">
-        <v>0.009677492082118988</v>
+        <v>0.3037694096565247</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001803463790565729</v>
+        <v>0.01634705252945423</v>
       </c>
       <c r="H8" t="n">
-        <v>0.009334659203886986</v>
+        <v>0.09595222771167755</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01694944128394127</v>
+        <v>0.04628715664148331</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007126342039555311</v>
+        <v>0.1347532868385315</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0009236966143362224</v>
+        <v>0.3272359669208527</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04652917757630348</v>
+        <v>0.008197493851184845</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001333980704657733</v>
+        <v>0.234705850481987</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01121679786592722</v>
+        <v>0.04895946756005287</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007083747070282698</v>
+        <v>0.3471284508705139</v>
       </c>
       <c r="P8" t="n">
-        <v>0.002182937460020185</v>
+        <v>0.002648457884788513</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01000430341809988</v>
+        <v>0.007580909878015518</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01735970936715603</v>
+        <v>0.0532505214214325</v>
       </c>
       <c r="S8" t="n">
-        <v>0.002518848981708288</v>
+        <v>0.03960704430937767</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01035132724791765</v>
+        <v>0.06112472712993622</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001571886008605361</v>
+        <v>0.03545567020773888</v>
       </c>
       <c r="V8" t="n">
-        <v>0.003785248612985015</v>
+        <v>0.05692069232463837</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002027979120612144</v>
+        <v>0.0279327966272831</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001482921419665217</v>
+        <v>0.02557237073779106</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0001679125125519931</v>
+        <v>0.05690335854887962</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.003700719913467765</v>
+        <v>0.03842366114258766</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.950251134985592e-05</v>
+        <v>0.05055372789502144</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.002462535165250301</v>
+        <v>0.0002070460468530655</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0002982541918754578</v>
+        <v>0.04465112090110779</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.006292069330811501</v>
+        <v>0.02440403588116169</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0001903343945741653</v>
+        <v>0.0005625202320516109</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.001724694739095867</v>
+        <v>0.01799420639872551</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0001457231410313398</v>
+        <v>0.004050122573971748</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0009742332622408867</v>
+        <v>0.02441317215561867</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.001390659133903682</v>
+        <v>0.03598549962043762</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.005805006250739098</v>
+        <v>0.037112046033144</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.004090409260243177</v>
+        <v>0.03774325549602509</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.003149644006043673</v>
+        <v>0.07314363867044449</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.00955658033490181</v>
+        <v>0.02266141958534718</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.43425602093339e-05</v>
+        <v>0.0004321467131376266</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0004369695670902729</v>
+        <v>0.02318612858653069</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.000545804388821125</v>
+        <v>0.05439485982060432</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0005522746359929442</v>
+        <v>0.009026544168591499</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.002424935577437282</v>
+        <v>0.03928947076201439</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0002342713269172236</v>
+        <v>0.06106070056557655</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.004007286857813597</v>
+        <v>0.03184117376804352</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.005274830386042595</v>
+        <v>0.272275298833847</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.02149924449622631</v>
+        <v>0.02178372070193291</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.002352886600419879</v>
+        <v>0.04523279517889023</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.003317979397252202</v>
+        <v>0.04085651412606239</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.004768979735672474</v>
+        <v>0.149662971496582</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.0024114940315485</v>
+        <v>0.02178179658949375</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0002258684253320098</v>
+        <v>0.05276514962315559</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0002874027704820037</v>
+        <v>0.0865166112780571</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.002375492826104164</v>
+        <v>0.07230944186449051</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.000795466941781342</v>
+        <v>0.07603241503238678</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.01401366479694843</v>
+        <v>0.1234653815627098</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.003504953579977155</v>
+        <v>0.07960883527994156</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.01102152280509472</v>
+        <v>0.1045583337545395</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.006004613824188709</v>
+        <v>0.08581310510635376</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0002073758514598012</v>
+        <v>0.01260006800293922</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.004347185138612986</v>
+        <v>0.06867058575153351</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.007556023076176643</v>
+        <v>0.04049591720104218</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.002682768739759922</v>
+        <v>0.01394042931497097</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.001640646951273084</v>
+        <v>0.05365542322397232</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.01032884791493416</v>
+        <v>0.05508981272578239</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0001153310295194387</v>
+        <v>0.05432036146521568</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.005917519330978394</v>
+        <v>0.02127132005989552</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.002648402936756611</v>
+        <v>0.001950934529304504</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.002436408074572682</v>
+        <v>0.02064716070890427</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.005110729485750198</v>
+        <v>0.02723811753094196</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.001197151839733124</v>
+        <v>0.01280481275171041</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.006401796825230122</v>
+        <v>0.03160160407423973</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.0009191411081701517</v>
+        <v>0.1363173574209213</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.01395062543451786</v>
+        <v>0.06409593671560287</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.0006246064440347254</v>
+        <v>0.08944448828697205</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.008075903169810772</v>
+        <v>0.0501336045563221</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.005628741346299648</v>
+        <v>0.05731690302491188</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.0003340737603139132</v>
+        <v>0.02934453636407852</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.001394213642925024</v>
+        <v>0.02981076948344707</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.004145181272178888</v>
+        <v>0.06873860210180283</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.001049019978381693</v>
+        <v>0.008654293604195118</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.002875142730772495</v>
+        <v>0.0661480501294136</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.008103176020085812</v>
+        <v>0.06202508509159088</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.000408017192967236</v>
+        <v>0.0445738285779953</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.002732797292992473</v>
+        <v>0.02250472828745842</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.002168491715565324</v>
+        <v>0.05814843624830246</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.0005784954410046339</v>
+        <v>0.01928051561117172</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.0005004543345421553</v>
+        <v>0.01912199705839157</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.0024593286216259</v>
+        <v>0.03711248189210892</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.002227449091151357</v>
+        <v>0.04764892905950546</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.006319424137473106</v>
+        <v>0.007708967197686434</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.0004520958755165339</v>
+        <v>0.01992723345756531</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.002690661698579788</v>
+        <v>0.001715710386633873</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.0004264520248398185</v>
+        <v>0.0239369198679924</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.005447960458695889</v>
+        <v>0.003417892381548882</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.0003243298851884902</v>
+        <v>0.05558910220861435</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.00189767312258482</v>
+        <v>0.06198750436306</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.003896527225151658</v>
+        <v>0.02745396830141544</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.0008175173425115645</v>
+        <v>0.001586017664521933</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.001903535798192024</v>
+        <v>0.05905310437083244</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.008715922944247723</v>
+        <v>0.05781860277056694</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.0003319198149256408</v>
+        <v>0.06416304409503937</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.00547399278730154</v>
+        <v>0.01552697643637657</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.002166871912777424</v>
+        <v>0.0680822879076004</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.000325769156916067</v>
+        <v>0.01801540702581406</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.0007268714252859354</v>
+        <v>0.04350678622722626</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.002187706064432859</v>
+        <v>0.01924116164445877</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.00200773635879159</v>
+        <v>0.03382318466901779</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.004811685066670179</v>
+        <v>0.04739577695727348</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.008421069011092186</v>
+        <v>0.01762278005480766</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.004004414658993483</v>
+        <v>0.1418601274490356</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.006818980444222689</v>
+        <v>0.0103995930403471</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.001969474833458662</v>
+        <v>0.06254030019044876</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.002509382087737322</v>
+        <v>0.02669833041727543</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.002934668678790331</v>
+        <v>0.03486035019159317</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.00157295644748956</v>
+        <v>0.004771032370626926</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.002061503473669291</v>
+        <v>0.005835811607539654</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.004224443342536688</v>
+        <v>4.237191751599312e-05</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.002261495916172862</v>
+        <v>0.03067848458886147</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.001774030271917582</v>
+        <v>0.0475146695971489</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.004545421805232763</v>
+        <v>0.01867482624948025</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.003456516424193978</v>
+        <v>0.01909280382096767</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.002118931384757161</v>
+        <v>0.05588211864233017</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.001374316401779652</v>
+        <v>0.001527171581983566</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.0007378963055089116</v>
+        <v>0.08440347015857697</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.001508913817815483</v>
+        <v>0.0191228836774826</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.002076000673696399</v>
+        <v>0.03129398077726364</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.006111378315836191</v>
+        <v>0.08351793140172958</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.004023509565740824</v>
+        <v>0.005903306882828474</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.004757585003972054</v>
+        <v>0.01009432226419449</v>
       </c>
       <c r="EB8" t="n">
-        <v>1.328626240137964e-05</v>
+        <v>0.03553570434451103</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.001136564649641514</v>
+        <v>0.01165065169334412</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.001830937108024955</v>
+        <v>0.04473041370511055</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.0020086953882128</v>
+        <v>0.03142294660210609</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.001084432937204838</v>
+        <v>0.02887651510536671</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.003338057547807693</v>
+        <v>0.04863578081130981</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.00859406590461731</v>
+        <v>0.04543042927980423</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.002258443972095847</v>
+        <v>0.007376119494438171</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.001771282404661179</v>
+        <v>0.004759647883474827</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.00763784209266305</v>
+        <v>0.07944966107606888</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.0007233444484882057</v>
+        <v>0.01857121661305428</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.003695025574415922</v>
+        <v>0.002579864580184221</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.0008145493920892477</v>
+        <v>0.01104890555143356</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.0008195090340450406</v>
+        <v>0.0004507210105657578</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.004988184198737144</v>
+        <v>0.02628185227513313</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.003966574557125568</v>
+        <v>0.06223439425230026</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.000225255498662591</v>
+        <v>0.03330141678452492</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.003950727637857199</v>
+        <v>0.02107765898108482</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.001342200208455324</v>
+        <v>0.04696949943900108</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.0008861838141456246</v>
+        <v>0.03975817561149597</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.001629125326871872</v>
+        <v>0.08019483089447021</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.006018828600645065</v>
+        <v>0.005158334970474243</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.002603361150249839</v>
+        <v>0.004233862273395061</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.001421761000528932</v>
+        <v>0.05664365738630295</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.008749378845095634</v>
+        <v>0.04810936748981476</v>
       </c>
       <c r="FA8" t="n">
-        <v>9.522234904579818e-06</v>
+        <v>0.05849950015544891</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.004085985943675041</v>
+        <v>0.02409357950091362</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.0004147931758780032</v>
+        <v>0.05473070591688156</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.0002629752270877361</v>
+        <v>0.03216205164790154</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.002054511802271008</v>
+        <v>0.02413243800401688</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.003135897452011704</v>
+        <v>0.03487608954310417</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.001612934865988791</v>
+        <v>0.00972035713493824</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.001197811448946595</v>
+        <v>0.03278931230306625</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.006390072870999575</v>
+        <v>0.06004271656274796</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.007648818660527468</v>
+        <v>0.05406949669122696</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.005517414771020412</v>
+        <v>0.009165075607597828</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.003899600589647889</v>
+        <v>0.0479234978556633</v>
       </c>
       <c r="FM8" t="n">
-        <v>6.919435691088438e-06</v>
+        <v>0.03543504327535629</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.003092911094427109</v>
+        <v>0.04141245782375336</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.001025037956424057</v>
+        <v>0.0285356342792511</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.0003585861995816231</v>
+        <v>0.01371928863227367</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.01311350055038929</v>
+        <v>0.08992103487253189</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.005654074251651764</v>
+        <v>0.04224938154220581</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.002612368203699589</v>
+        <v>0.09688316285610199</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.00678110821172595</v>
+        <v>0.0724637359380722</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.003150991862639785</v>
+        <v>0.003599477000534534</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.0002639104495756328</v>
+        <v>0.02626558393239975</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.001639665802940726</v>
+        <v>0.01732093468308449</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.002760307863354683</v>
+        <v>0.006335332058370113</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.0007283205050043762</v>
+        <v>0.08346714824438095</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.001422789646312594</v>
+        <v>0.01610144972801208</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.004009576980024576</v>
+        <v>0.02075017429888248</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.001102299778722227</v>
+        <v>0.006805709097534418</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.006659699603915215</v>
+        <v>0.04067938029766083</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.007438578642904758</v>
+        <v>0.03074569627642632</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.0007366768550127745</v>
+        <v>0.2242997139692307</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.002996789757162333</v>
+        <v>0.01249695383012295</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.002901401370763779</v>
+        <v>0.04457202181220055</v>
       </c>
     </row>
     <row r="9">
@@ -5556,2278 +5556,2278 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0005072054918855429</v>
+        <v>0.01554986089468002</v>
       </c>
       <c r="B10" t="n">
-        <v>0.00192835892084986</v>
+        <v>0.07014036923646927</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01592988893389702</v>
+        <v>0.00990816205739975</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003349856473505497</v>
+        <v>0.02057818695902824</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02135771512985229</v>
+        <v>0.04239463806152344</v>
       </c>
       <c r="F10" t="n">
-        <v>0.007789128459990025</v>
+        <v>0.002097753109410405</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005843842402100563</v>
+        <v>0.01067756116390228</v>
       </c>
       <c r="H10" t="n">
-        <v>0.006133256480097771</v>
+        <v>0.001380008179694414</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002278149360790849</v>
+        <v>0.0001712454832158983</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001603423617780209</v>
+        <v>0.00850962195545435</v>
       </c>
       <c r="K10" t="n">
-        <v>0.003471748903393745</v>
+        <v>0.05022390931844711</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01986201107501984</v>
+        <v>0.006871121935546398</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004171434789896011</v>
+        <v>0.02548253163695335</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01718515902757645</v>
+        <v>0.04197346791625023</v>
       </c>
       <c r="O10" t="n">
-        <v>0.001620729104615748</v>
+        <v>0.0110950693488121</v>
       </c>
       <c r="P10" t="n">
-        <v>0.008761344477534294</v>
+        <v>0.001232702750712633</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.003389417659491301</v>
+        <v>0.02883544191718102</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001818251330405474</v>
+        <v>0.003123383270576596</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001691780751571059</v>
+        <v>0.00148590502794832</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0006974562420509756</v>
+        <v>0.02482464909553528</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0006032570963725448</v>
+        <v>2.814098843373358e-05</v>
       </c>
       <c r="V10" t="n">
-        <v>0.003274944145232439</v>
+        <v>0.002084101084619761</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0006976646254770458</v>
+        <v>0.009272863157093525</v>
       </c>
       <c r="X10" t="n">
-        <v>0.001270930515602231</v>
+        <v>0.01045862771570683</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0007750646327622235</v>
+        <v>0.01056931260973215</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0003531660186126828</v>
+        <v>0.0001095861662179232</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.003999865148216486</v>
+        <v>0.006463431287556887</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.002579628489911556</v>
+        <v>0.008662862703204155</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.003518341109156609</v>
+        <v>0.01861467026174068</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.001211771974340081</v>
+        <v>0.006873979233205318</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.001053410582244396</v>
+        <v>0.009312724694609642</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.00554905878379941</v>
+        <v>0.01231355778872967</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0002854123886208981</v>
+        <v>0.001865212805569172</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.004689838271588087</v>
+        <v>0.01632852852344513</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.006706507876515388</v>
+        <v>0.00452168844640255</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.003054878441616893</v>
+        <v>0.001410966156981885</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.002306188456714153</v>
+        <v>0.0117957815527916</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.005078351125121117</v>
+        <v>0.01724098064005375</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.002850948832929134</v>
+        <v>0.004012210294604301</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.002412105444818735</v>
+        <v>0.005322746932506561</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.003407359588891268</v>
+        <v>0.003512540832161903</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.00126022519543767</v>
+        <v>0.003411879297345877</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0009860596619546413</v>
+        <v>0.003405584255233407</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0009643394150771201</v>
+        <v>0.002190755913034081</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.003098127664998174</v>
+        <v>0.005157936364412308</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.006021241191774607</v>
+        <v>0.01791307888925076</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.007000411860644817</v>
+        <v>0.07147007435560226</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.005681719165295362</v>
+        <v>0.005724911112338305</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.002814654493704438</v>
+        <v>0.003587245708331466</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.002904989756643772</v>
+        <v>0.005477622617036104</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.005738141015172005</v>
+        <v>0.002690784633159637</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.0005781601648777723</v>
+        <v>0.001112047233618796</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.01269090548157692</v>
+        <v>0.0114130349829793</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.00744901318103075</v>
+        <v>7.206547888927162e-05</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.002817675936967134</v>
+        <v>0.00731323566287756</v>
       </c>
       <c r="BD10" t="n">
-        <v>1.645879819989204e-05</v>
+        <v>0.009170481003820896</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.001431492157280445</v>
+        <v>0.01075813453644514</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.001428228919394314</v>
+        <v>0.00681858416646719</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.01583838649094105</v>
+        <v>0.02529018931090832</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.00425840076059103</v>
+        <v>0.01164405886083841</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.002428404986858368</v>
+        <v>0.005726491566747427</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.003517026081681252</v>
+        <v>0.02062829956412315</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.002217162400484085</v>
+        <v>0.004002900328487158</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.002212607767432928</v>
+        <v>0.009336965158581734</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.001635215943679214</v>
+        <v>0.02243887446820736</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.00363857951015234</v>
+        <v>0.003151390934363008</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.003034826600924134</v>
+        <v>0.02280834503471851</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0006211271975189447</v>
+        <v>0.02214523404836655</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.0002663800260052085</v>
+        <v>0.01527787279337645</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.001188094145618379</v>
+        <v>0.000123028177767992</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.002410570392385125</v>
+        <v>0.007544208317995071</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.001580507727339864</v>
+        <v>0.00286469329148531</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.002363313920795918</v>
+        <v>0.00950933713465929</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.002355807228013873</v>
+        <v>0.04013717547059059</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.006576672196388245</v>
+        <v>0.01229055784642696</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0005958951660431921</v>
+        <v>0.002165388781577349</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.003844684222713113</v>
+        <v>0.002201937139034271</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.0009376539965160191</v>
+        <v>0.008176990784704685</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.0003206892288289964</v>
+        <v>0.0166260227560997</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.006096464116126299</v>
+        <v>0.007690258324146271</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.001843354431912303</v>
+        <v>0.003632539650425315</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.001570106949657202</v>
+        <v>0.0009689830476418138</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.002814013045281172</v>
+        <v>0.0124470517039299</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.002564254216849804</v>
+        <v>0.0001853102876339108</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.002254947554320097</v>
+        <v>0.009941259399056435</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.00328538054600358</v>
+        <v>0.004262890666723251</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.001797325909137726</v>
+        <v>0.00498903077095747</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.001173221739009023</v>
+        <v>0.001050698570907116</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.0009629059350118041</v>
+        <v>0.0001968028082046658</v>
       </c>
       <c r="CL10" t="n">
-        <v>7.482086948584765e-05</v>
+        <v>0.004704682622104883</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.004032302647829056</v>
+        <v>0.02770276740193367</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.003815677715465426</v>
+        <v>0.02489689365029335</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.003138985252007842</v>
+        <v>0.0006756768561899662</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.001358724548481405</v>
+        <v>0.008321085013449192</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.0008861300884746015</v>
+        <v>0.0270823035389185</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.003211313625797629</v>
+        <v>0.003042312804609537</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.002430416410788894</v>
+        <v>0.002446394180878997</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.0005401477101258934</v>
+        <v>0.005624583456665277</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.00188309873919934</v>
+        <v>0.0008474006317555904</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.0013911675196141</v>
+        <v>0.0004391064867377281</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.003468509064987302</v>
+        <v>0.009305836632847786</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.003188467118889093</v>
+        <v>0.002692129462957382</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.002668609144166112</v>
+        <v>0.01411662809550762</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.004626873414963484</v>
+        <v>0.002311107935383916</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.002851234283298254</v>
+        <v>0.006282894872128963</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.0005335160531103611</v>
+        <v>0.0004940289072692394</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.0001928319106809795</v>
+        <v>0.003056678222492337</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.0002983520680572838</v>
+        <v>0.002491939347237349</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.007397657260298729</v>
+        <v>0.02101856470108032</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.000234333099797368</v>
+        <v>0.03990837559103966</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.001004284713417292</v>
+        <v>0.003059873823076487</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.003197026439011097</v>
+        <v>0.03410201892256737</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.001881442498415709</v>
+        <v>0.01159583125263453</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.008577289059758186</v>
+        <v>0.002051133429631591</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.001758233644068241</v>
+        <v>0.04074326902627945</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.001914717257022858</v>
+        <v>0.01250117458403111</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.002143357181921601</v>
+        <v>0.004076436161994934</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.002943164668977261</v>
+        <v>0.01374116912484169</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.0005711166304536164</v>
+        <v>0.01309563964605331</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.0009520663879811764</v>
+        <v>0.003933674190193415</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.000369219807907939</v>
+        <v>0.001396221457980573</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.0005796065670438111</v>
+        <v>0.01383760198950768</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.004111004061996937</v>
+        <v>0.008790909312665462</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.00318081839941442</v>
+        <v>0.003991243429481983</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.001979591557756066</v>
+        <v>0.004748451057821512</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.002791253617033362</v>
+        <v>0.006044522393494844</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.001701334724202752</v>
+        <v>0.003851134330034256</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.0007113375468179584</v>
+        <v>0.003935130778700113</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.0004527335695456713</v>
+        <v>0.008078459650278091</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.002602517837658525</v>
+        <v>0.01526822056621313</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.004320754203945398</v>
+        <v>0.01313319336622953</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.003384834621101618</v>
+        <v>0.00144685769919306</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.000954976596403867</v>
+        <v>0.009284209460020065</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.004162966273725033</v>
+        <v>0.0003104851930402219</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.0003856446710415184</v>
+        <v>0.003129132557660341</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.003037515794858336</v>
+        <v>0.008979173377156258</v>
       </c>
       <c r="EG10" t="n">
-        <v>5.91217540204525e-05</v>
+        <v>2.007824514294043e-05</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.004544232040643692</v>
+        <v>6.68869906803593e-05</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.003483664244413376</v>
+        <v>0.02280188351869583</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.007302859332412481</v>
+        <v>0.01304988097399473</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.006050826981663704</v>
+        <v>0.004745736718177795</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.001751406700350344</v>
+        <v>0.004542926326394081</v>
       </c>
       <c r="EM10" t="n">
-        <v>6.107866647653282e-05</v>
+        <v>0.002107461215928197</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.003881364827975631</v>
+        <v>3.53704672306776e-05</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.001635298482142389</v>
+        <v>0.009966103360056877</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.005820939783006907</v>
+        <v>0.003866207785904408</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.001411625416949391</v>
+        <v>0.01256202720105648</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.001043138792738318</v>
+        <v>0.01191132795065641</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.002458192408084869</v>
+        <v>0.001274274429306388</v>
       </c>
       <c r="ET10" t="n">
-        <v>8.757345494814217e-05</v>
+        <v>0.008907058276236057</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.001126616029068828</v>
+        <v>2.395396586507559e-05</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.005356353707611561</v>
+        <v>0.006601540837436914</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.0007101453957147896</v>
+        <v>0.004005837254226208</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.001948461402207613</v>
+        <v>0.0007331091910600662</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.002675834111869335</v>
+        <v>0.007187142968177795</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.002787005854770541</v>
+        <v>0.001204623724333942</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.002536941552534699</v>
+        <v>0.01120935752987862</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.004535187035799026</v>
+        <v>0.001111085526645184</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.002087325090542436</v>
+        <v>0.005561096593737602</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.0009076031274162233</v>
+        <v>0.002673451323062181</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.0003496594436001033</v>
+        <v>0.001448634313419461</v>
       </c>
       <c r="FF10" t="n">
-        <v>2.884802961489186e-05</v>
+        <v>0.003679746063426137</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.001159593230113387</v>
+        <v>0.01061735395342112</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.001721306587569416</v>
+        <v>0.01673528552055359</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.00340611906722188</v>
+        <v>0.009411588311195374</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.001487748813815415</v>
+        <v>0.003606434678658843</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.002697983058169484</v>
+        <v>0.005480068270117044</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.001756441313773394</v>
+        <v>0.003711296012625098</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.002557126106694341</v>
+        <v>0.002236240776255727</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.0004974976764060557</v>
+        <v>0.001674933591857553</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.001119469525292516</v>
+        <v>0.001081352005712688</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.007299128919839859</v>
+        <v>0.005856226198375225</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.007542194798588753</v>
+        <v>0.001486103748902678</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.0008329982520081103</v>
+        <v>0.007067886646836996</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.003058192785829306</v>
+        <v>0.02562012895941734</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.002103961538523436</v>
+        <v>0.01294733304530382</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.0007321275188587606</v>
+        <v>0.004354092758148909</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.00200846022926271</v>
+        <v>0.0009708848083391786</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.003274640766903758</v>
+        <v>0.02096831798553467</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.002071885392069817</v>
+        <v>0.002535826992243528</v>
       </c>
       <c r="FY10" t="n">
-        <v>7.527974958065897e-05</v>
+        <v>0.005712715908885002</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.0005368650308810174</v>
+        <v>0.01935379952192307</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.001357288216240704</v>
+        <v>0.0120299244299531</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.0009970261016860604</v>
+        <v>0.01084455661475658</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.001441511907614768</v>
+        <v>0.004121070727705956</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.001818996970541775</v>
+        <v>0.0124049223959446</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.001198536017909646</v>
+        <v>0.02001896873116493</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.002577361185103655</v>
+        <v>0.01758640632033348</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.001399361877702177</v>
+        <v>0.0006765954894945025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.06404714286327362</v>
+        <v>0.03218394890427589</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1668193489313126</v>
+        <v>0.2123985588550568</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1416280269622803</v>
+        <v>0.0001970803714357316</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0435878112912178</v>
+        <v>0.05954695492982864</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09301570057868958</v>
+        <v>0.02524762973189354</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01008488796651363</v>
+        <v>0.03512627258896828</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01615501008927822</v>
+        <v>0.01569333486258984</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008834507316350937</v>
+        <v>0.006874158512800932</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03608610481023788</v>
+        <v>0.03799623996019363</v>
       </c>
       <c r="J11" t="n">
-        <v>0.08634500205516815</v>
+        <v>0.04798310995101929</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1537213772535324</v>
+        <v>0.1551417857408524</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1710951030254364</v>
+        <v>0.000998667674139142</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002529705176129937</v>
+        <v>0.04970483481884003</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1002595871686935</v>
+        <v>0.05197658762335777</v>
       </c>
       <c r="O11" t="n">
-        <v>0.07290151715278625</v>
+        <v>0.0496181957423687</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03931539505720139</v>
+        <v>0.02153880521655083</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01675738580524921</v>
+        <v>0.01459823828190565</v>
       </c>
       <c r="R11" t="n">
-        <v>0.03183940798044205</v>
+        <v>0.04297695308923721</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01113484334200621</v>
+        <v>0.008007552474737167</v>
       </c>
       <c r="T11" t="n">
-        <v>0.05353715270757675</v>
+        <v>0.04505261033773422</v>
       </c>
       <c r="U11" t="n">
-        <v>0.05049483850598335</v>
+        <v>0.003305527381598949</v>
       </c>
       <c r="V11" t="n">
-        <v>0.005191060714423656</v>
+        <v>0.0317438617348671</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0832611471414566</v>
+        <v>0.0118562038987875</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02625939436256886</v>
+        <v>0.03326409682631493</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.02970942668616772</v>
+        <v>0.01038662437349558</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.001017827540636063</v>
+        <v>0.02983665093779564</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.002077246550470591</v>
+        <v>0.01563754491508007</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.005637884140014648</v>
+        <v>0.005570209585130215</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.06584136188030243</v>
+        <v>0.02365129627287388</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.03132753074169159</v>
+        <v>0.008226718753576279</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.06056710705161095</v>
+        <v>0.009622259996831417</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.03895222395658493</v>
+        <v>0.03183324635028839</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0292521994560957</v>
+        <v>0.04511312395334244</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.06671631336212158</v>
+        <v>0.01111134327948093</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.06077797710895538</v>
+        <v>0.005103253293782473</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.04934265464544296</v>
+        <v>0.01390464045107365</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.01068312861025333</v>
+        <v>0.02250746451318264</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.002451885491609573</v>
+        <v>0.0423847995698452</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.01835384033620358</v>
+        <v>0.005781557876616716</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.007823355495929718</v>
+        <v>0.0195271410048008</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.01213485561311245</v>
+        <v>0.00570294726639986</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.00567307835444808</v>
+        <v>0.02020914852619171</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.004009228199720383</v>
+        <v>0.01106815133243799</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.02688134834170341</v>
+        <v>0.008861131966114044</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.02411919832229614</v>
+        <v>0.0199778713285923</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.0486401841044426</v>
+        <v>0.004278106149286032</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.04722264036536217</v>
+        <v>0.1301725804805756</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.01899925619363785</v>
+        <v>0.0126482043415308</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.01891127042472363</v>
+        <v>0.0162052046507597</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.04119017720222473</v>
+        <v>0.01565140672028065</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.03696001693606377</v>
+        <v>0.02215870469808578</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.009441502392292023</v>
+        <v>0.009280575439333916</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.01741624251008034</v>
+        <v>0.01163647882640362</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.005948624573647976</v>
+        <v>0.004251575563102961</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.04245676100254059</v>
+        <v>0.004964271560311317</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.08406610786914825</v>
+        <v>0.02988169528543949</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.06848010420799255</v>
+        <v>0.01530836336314678</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.006393447518348694</v>
+        <v>0.00561278872191906</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.1204858049750328</v>
+        <v>0.04413518309593201</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.008934954181313515</v>
+        <v>0.006751604378223419</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.007600303739309311</v>
+        <v>0.02079491317272186</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.008346267975866795</v>
+        <v>0.01403764449059963</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.01421191729605198</v>
+        <v>0.03011903539299965</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.04043902456760406</v>
+        <v>0.005082030780613422</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.02192079462110996</v>
+        <v>0.009723127819597721</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.02999232895672321</v>
+        <v>0.0007646736921742558</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.03420601040124893</v>
+        <v>0.01137683913111687</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.01807285472750664</v>
+        <v>0.02862579561769962</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.04166775569319725</v>
+        <v>0.02628187462687492</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.0108032301068306</v>
+        <v>0.004092734772711992</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.01719724759459496</v>
+        <v>0.01555137615650892</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.01244591921567917</v>
+        <v>0.02620325796306133</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.06450531631708145</v>
+        <v>0.008584808558225632</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.04993276298046112</v>
+        <v>0.09379476308822632</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.06225503236055374</v>
+        <v>0.01747508719563484</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.0303921066224575</v>
+        <v>0.03247115015983582</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.04411077499389648</v>
+        <v>0.0002523130387999117</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.02799572423100471</v>
+        <v>0.005798126105219126</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.004256062209606171</v>
+        <v>0.005874317139387131</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.04955368116497993</v>
+        <v>0.01662790030241013</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.00792570598423481</v>
+        <v>0.0148118007928133</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.02218402549624443</v>
+        <v>0.006990291178226471</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.03045820631086826</v>
+        <v>0.03027556091547012</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.01843730360269547</v>
+        <v>0.009601371362805367</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.0004690326750278473</v>
+        <v>0.007003752049058676</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01932522095739841</v>
+        <v>0.003352616913616657</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.003276208881288767</v>
+        <v>0.005071286112070084</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.001929207006469369</v>
+        <v>0.004557847045361996</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.002403136575594544</v>
+        <v>0.007511753588914871</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.006915295496582985</v>
+        <v>0.002126110950484872</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.00760332029312849</v>
+        <v>0.03517862781882286</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.008469259366393089</v>
+        <v>0.0001045982935465872</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.003750013187527657</v>
+        <v>0.0005648810183629394</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.01830008253455162</v>
+        <v>0.01469586230814457</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.03076469525694847</v>
+        <v>0.03851167485117912</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.01660460233688354</v>
+        <v>0.009540685452520847</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.01514052227139473</v>
+        <v>0.01921222545206547</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.001019611721858382</v>
+        <v>0.01412814203649759</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.01404054369777441</v>
+        <v>0.01987939327955246</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.01826489716768265</v>
+        <v>0.002924415282905102</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.03635624796152115</v>
+        <v>0.03093443065881729</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.02435173094272614</v>
+        <v>0.01211680565029383</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.0150789599865675</v>
+        <v>0.01166554074734449</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.02887259237468243</v>
+        <v>0.006839251145720482</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.003396902699023485</v>
+        <v>0.01438329461961985</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.01105832308530807</v>
+        <v>0.007949544116854668</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.001339404727332294</v>
+        <v>0.008233269676566124</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.00979155395179987</v>
+        <v>0.0006985227228142321</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.05276098102331161</v>
+        <v>0.007390893995761871</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.001111120916903019</v>
+        <v>0.05704014748334885</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.0295619610697031</v>
+        <v>0.003267480526119471</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.05239363014698029</v>
+        <v>0.04997266083955765</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.003571075387299061</v>
+        <v>0.01462891697883606</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.01338274031877518</v>
+        <v>0.05554273352026939</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.05214115977287292</v>
+        <v>0.006689688190817833</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.01949347928166389</v>
+        <v>0.003066974226385355</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.006374328397214413</v>
+        <v>0.02291912958025932</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.07968845963478088</v>
+        <v>0.002414398826658726</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.05667770653963089</v>
+        <v>0.01245310250669718</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.03683999180793762</v>
+        <v>0.008721371181309223</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.004178381990641356</v>
+        <v>0.01683135703206062</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.02823872864246368</v>
+        <v>0.02938702329993248</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.0130159379914403</v>
+        <v>0.0009559514001011848</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.006917875725775957</v>
+        <v>0.003237128723412752</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.02071461267769337</v>
+        <v>0.002128139371052384</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.02516017481684685</v>
+        <v>0.02938557229936123</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.0002266126684844494</v>
+        <v>0.0007430021651089191</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.01687649078667164</v>
+        <v>0.02029922604560852</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.01464675273746252</v>
+        <v>0.01836094446480274</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.004552205558866262</v>
+        <v>0.005971289705485106</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.04368980228900909</v>
+        <v>0.01777126267552376</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.006178496871143579</v>
+        <v>0.0105474665760994</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.01490357145667076</v>
+        <v>0.002655174350365996</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.04826626554131508</v>
+        <v>0.00828669685870409</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.03177164122462273</v>
+        <v>0.01359535846859217</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.007107757031917572</v>
+        <v>0.004175784531980753</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.02730061672627926</v>
+        <v>0.01122288499027491</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.03776393458247185</v>
+        <v>0.005535811651498079</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.04144145548343658</v>
+        <v>0.01530192419886589</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.01192310638725758</v>
+        <v>0.004639754071831703</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.01118230726569891</v>
+        <v>0.01953521743416786</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.005885801278054714</v>
+        <v>0.009476855397224426</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.01594211719930172</v>
+        <v>0.001448547118343413</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.002574440790340304</v>
+        <v>0.004886786919087172</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.03840110078454018</v>
+        <v>0.005899435840547085</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.07361513376235962</v>
+        <v>0.01230136398226023</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.02563111484050751</v>
+        <v>0.01422932930290699</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.01963452063500881</v>
+        <v>0.007742155343294144</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.07173322886228561</v>
+        <v>0.0003305267891846597</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.005992043763399124</v>
+        <v>0.03581495955586433</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.01275255344808102</v>
+        <v>0.01025629974901676</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.02473326027393341</v>
+        <v>0.03202563896775246</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.01746971160173416</v>
+        <v>0.004500781651586294</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.03089054673910141</v>
+        <v>0.002578237559646368</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.03039148636162281</v>
+        <v>0.03110994771122932</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.01998381316661835</v>
+        <v>0.007245442364364862</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.01037568040192127</v>
+        <v>0.01311893574893475</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.02099673449993134</v>
+        <v>0.009864292107522488</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.003466610796749592</v>
+        <v>0.01029846724122763</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.008922092616558075</v>
+        <v>0.005644898395985365</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.005675387568771839</v>
+        <v>0.00226086238399148</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.01685418747365475</v>
+        <v>0.00441076373681426</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.02143851108849049</v>
+        <v>0.002659345045685768</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.02269263565540314</v>
+        <v>0.02028720080852509</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.04280618578195572</v>
+        <v>0.0142994225025177</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.02694477140903473</v>
+        <v>0.01370341330766678</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.01672135293483734</v>
+        <v>0.006421097554266453</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.03771854564547539</v>
+        <v>0.00363954296335578</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.03107708320021629</v>
+        <v>0.009028831496834755</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.0275861881673336</v>
+        <v>0.006373318377882242</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.001278881449252367</v>
+        <v>0.006435250863432884</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.001889094710350037</v>
+        <v>0.01125794183462858</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.02980318479239941</v>
+        <v>0.04275926202535629</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.001403576461598277</v>
+        <v>0.01428592298179865</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.09332256764173508</v>
+        <v>0.02745112404227257</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.07447686046361923</v>
+        <v>0.001395493512973189</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.004939344711601734</v>
+        <v>0.005034955684095621</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.004839471541345119</v>
+        <v>0.02463188394904137</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.02281235158443451</v>
+        <v>0.01083041727542877</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.089034304022789</v>
+        <v>0.01619871705770493</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.01788255386054516</v>
+        <v>0.02591996267437935</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.02499066665768623</v>
+        <v>0.002360637299716473</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.03349414095282555</v>
+        <v>0.003802358405664563</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.03134340792894363</v>
+        <v>0.009078925475478172</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.05269983410835266</v>
+        <v>0.07337432354688644</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.004855635575950146</v>
+        <v>0.03178423643112183</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.01455980353057384</v>
+        <v>0.07348792999982834</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.02875756658613682</v>
+        <v>0.004643549211323261</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.001747759059071541</v>
+        <v>0.01076110545545816</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.005346114747226238</v>
+        <v>0.009669339284300804</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01956354081630707</v>
+        <v>0.07197524607181549</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01165466755628586</v>
+        <v>0.007208586670458317</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03604127466678619</v>
+        <v>0.01128796301782131</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004298587329685688</v>
+        <v>0.01458880119025707</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002273409627377987</v>
+        <v>0.00639175483956933</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002504954114556313</v>
+        <v>0.03572084009647369</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01166325900703669</v>
+        <v>0.003638547845184803</v>
       </c>
       <c r="I12" t="n">
-        <v>0.008612480014562607</v>
+        <v>0.0005797703634016216</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01070433855056763</v>
+        <v>0.01504797488451004</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02640806883573532</v>
+        <v>0.05252392962574959</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01454536616802216</v>
+        <v>0.005199961364269257</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02007466740906239</v>
+        <v>0.02402882464230061</v>
       </c>
       <c r="N12" t="n">
-        <v>0.009483737871050835</v>
+        <v>0.01588805206120014</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01700246520340443</v>
+        <v>0.009480693377554417</v>
       </c>
       <c r="P12" t="n">
-        <v>0.004288249183446169</v>
+        <v>0.03020710870623589</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01374253071844578</v>
+        <v>0.01095870696008205</v>
       </c>
       <c r="R12" t="n">
-        <v>0.009909901767969131</v>
+        <v>0.004982705228030682</v>
       </c>
       <c r="S12" t="n">
-        <v>0.004710903391242027</v>
+        <v>0.005066880024969578</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0004961339291185141</v>
+        <v>0.01756567880511284</v>
       </c>
       <c r="U12" t="n">
-        <v>0.002675880677998066</v>
+        <v>0.006865448318421841</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01440010033547878</v>
+        <v>0.001685940893366933</v>
       </c>
       <c r="W12" t="n">
-        <v>0.01900659315288067</v>
+        <v>0.006230299826711416</v>
       </c>
       <c r="X12" t="n">
-        <v>0.00414489908143878</v>
+        <v>0.01105639711022377</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.001139270840212703</v>
+        <v>0.0009174102451652288</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0002027616719715297</v>
+        <v>0.006776839960366488</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.001723895198665559</v>
+        <v>0.008380349725484848</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0126777645200491</v>
+        <v>0.002480211202055216</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.008009224198758602</v>
+        <v>0.01078291609883308</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.002645541448146105</v>
+        <v>0.00347242271527648</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.01277452427893877</v>
+        <v>0.0001871143467724323</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.0004308645438868552</v>
+        <v>0.0101988110691309</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.001571913715451956</v>
+        <v>0.007605582475662231</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0006185448728501797</v>
+        <v>0.001820549834519625</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.002909210044890642</v>
+        <v>0.002633143682032824</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.002049888949841261</v>
+        <v>0.007268025539815426</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.01082649268209934</v>
+        <v>0.01112830732017756</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.00253899022936821</v>
+        <v>0.01300337072461843</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.002680111909285188</v>
+        <v>0.002689098240807652</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.00221538171172142</v>
+        <v>0.006893530953675508</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.005840083118528128</v>
+        <v>0.003425454022362828</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.0004461516800802201</v>
+        <v>0.0006701464881189167</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.002672389848157763</v>
+        <v>0.003569005290046334</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.002521098591387272</v>
+        <v>0.002421800745651126</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.001926286844536662</v>
+        <v>0.005275605712085962</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.01069124601781368</v>
+        <v>0.00879957340657711</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.02100040763616562</v>
+        <v>0.05556334927678108</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.01024603471159935</v>
+        <v>0.001364546827971935</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.008325777016580105</v>
+        <v>0.01097512152045965</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.01567562110722065</v>
+        <v>0.006995928473770618</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.00954920519143343</v>
+        <v>0.01119549106806517</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.00191846676170826</v>
+        <v>0.01192539464682341</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.008635051548480988</v>
+        <v>0.009154334664344788</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.001114100450649858</v>
+        <v>0.004797652829438448</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.003497765865176916</v>
+        <v>0.006779001094400883</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.005029750522226095</v>
+        <v>0.0100411968305707</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.01112088188529015</v>
+        <v>0.01277182996273041</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.01694659888744354</v>
+        <v>0.003569703549146652</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.01011350657790899</v>
+        <v>0.01828591339290142</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.0152949932962656</v>
+        <v>0.00290707778185606</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.002162478631362319</v>
+        <v>0.01179373078048229</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.006269210949540138</v>
+        <v>0.01101460959762335</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.001307300990447402</v>
+        <v>0.005616641137748957</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.009448217228055</v>
+        <v>0.002075487282127142</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.01005496364086866</v>
+        <v>0.007020324934273958</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.00639704242348671</v>
+        <v>0.002893333090469241</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.008120376616716385</v>
+        <v>0.01388417184352875</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.006115654483437538</v>
+        <v>0.01529478188604116</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.0009912352543324232</v>
+        <v>0.001743211061693728</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.001046417164616287</v>
+        <v>0.002623022068291903</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.0003761563275475055</v>
+        <v>0.007397426757961512</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.000710770720615983</v>
+        <v>0.004066371358931065</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.01251083612442017</v>
+        <v>0.004425994586199522</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.003771218005567789</v>
+        <v>0.02841732837259769</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.0006279635708779097</v>
+        <v>0.009682255797088146</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.00612538680434227</v>
+        <v>0.005857082083821297</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.0001974701444851235</v>
+        <v>0.001000773045234382</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.009567080065608025</v>
+        <v>0.002027749549597502</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.003306868486106396</v>
+        <v>0.001105086412280798</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.005056200083345175</v>
+        <v>0.008886148221790791</v>
       </c>
       <c r="CC12" t="n">
-        <v>9.843904990702868e-05</v>
+        <v>0.004224454052746296</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.01648088172078133</v>
+        <v>8.003902621567249e-06</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.003576696151867509</v>
+        <v>0.01251649763435125</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.00216559530235827</v>
+        <v>0.005253682378679514</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.00621542613953352</v>
+        <v>0.005947345402091742</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.002071333816275001</v>
+        <v>0.000798103807028383</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.004061271902173758</v>
+        <v>0.002148012397810817</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.003111838828772306</v>
+        <v>0.007727762684226036</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.003441398730501533</v>
+        <v>0.0001690213539404795</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.002184717683121562</v>
+        <v>0.005000404082238674</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.01222250889986753</v>
+        <v>0.01655412279069424</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.008919042535126209</v>
+        <v>0.01002239715307951</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.01004406716674566</v>
+        <v>0.001393389422446489</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.004423856269568205</v>
+        <v>0.006662202998995781</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.009559436701238155</v>
+        <v>0.0168506633490324</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.02565986104309559</v>
+        <v>0.0002839574008248746</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.005171594209969044</v>
+        <v>0.002694403054192662</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.006993603892624378</v>
+        <v>0.002220313064754009</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.005730636417865753</v>
+        <v>0.0004665626911446452</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.01597476191818714</v>
+        <v>0.001638761721551418</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.004602836910635233</v>
+        <v>0.01208189129829407</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.002721515018492937</v>
+        <v>0.005656515713781118</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.00627637654542923</v>
+        <v>0.01041226461529732</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.001706773531623185</v>
+        <v>0.001514348550699651</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.004779993556439877</v>
+        <v>0.002499691676348448</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.001433751080185175</v>
+        <v>0.008736718446016312</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.002206195145845413</v>
+        <v>0.001517163589596748</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.003553539514541626</v>
+        <v>0.004203967284411192</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.01609176769852638</v>
+        <v>0.005256431177258492</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.001471407478675246</v>
+        <v>0.02442360483109951</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.002840520814061165</v>
+        <v>0.003901492804288864</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.0058128722012043</v>
+        <v>0.01962215453386307</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.01510998606681824</v>
+        <v>0.002254382474347949</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.006948445923626423</v>
+        <v>0.002884042449295521</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.001828510547056794</v>
+        <v>0.003330346196889877</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.009869704954326153</v>
+        <v>0.004318314604461193</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.001376157277263701</v>
+        <v>0.009062415920197964</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.01486120373010635</v>
+        <v>0.0005669313250109553</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.0005899553652852774</v>
+        <v>0.004404284525662661</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.008500863797962666</v>
+        <v>0.003846728475764394</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.002691396977752447</v>
+        <v>0.0002770876744762063</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.01720898412168026</v>
+        <v>0.0002259204775327817</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.0009429826168343425</v>
+        <v>0.007233637850731611</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.006696699187159538</v>
+        <v>0.009268053807318211</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0007355350535362959</v>
+        <v>0.005006723571568727</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.001643863855861127</v>
+        <v>0.01132050529122353</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.00519470265135169</v>
+        <v>0.0001439880579710007</v>
       </c>
       <c r="DX12" t="n">
-        <v>1.70057755894959e-05</v>
+        <v>0.004810980521142483</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.009416496381163597</v>
+        <v>0.008750510402023792</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.005788050591945648</v>
+        <v>0.007555227261036634</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.00418300274759531</v>
+        <v>0.006592143792659044</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.01345230638980865</v>
+        <v>0.00797607097774744</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.0005682171322405338</v>
+        <v>0.001352623337879777</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.006601323839277029</v>
+        <v>0.004179371986538172</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.003324627643451095</v>
+        <v>0.001697277533821762</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.0155723923817277</v>
+        <v>0.005872016772627831</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.006674319505691528</v>
+        <v>0.003554567694664001</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.002837794600054622</v>
+        <v>0.003123200731351972</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.01323239877820015</v>
+        <v>0.009196072816848755</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.01643996126949787</v>
+        <v>0.0003655258624348789</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.008705619722604752</v>
+        <v>0.003362789284437895</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.001409709104336798</v>
+        <v>0.005923878867179155</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.000614255724940449</v>
+        <v>0.001503650331869721</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.002840587636455894</v>
+        <v>0.00204941350966692</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.009610856883227825</v>
+        <v>0.004654800985008478</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.0005111866630613804</v>
+        <v>0.004486487712711096</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.0006467995117418468</v>
+        <v>0.00780307175591588</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.003870752174407244</v>
+        <v>0.008400647900998592</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.003145310329273343</v>
+        <v>0.007361708674579859</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.002877389779314399</v>
+        <v>0.006642627529799938</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.004304029047489166</v>
+        <v>0.00795851182192564</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.003490371396765113</v>
+        <v>0.006226672325283289</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.001130424439907074</v>
+        <v>0.009362535551190376</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.01558428630232811</v>
+        <v>0.001895721885375679</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.00495689595118165</v>
+        <v>0.01123825088143349</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.002253437414765358</v>
+        <v>0.003436874831095338</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.006126126740127802</v>
+        <v>0.007997914217412472</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.003239318029955029</v>
+        <v>0.003154310397803783</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.005292723421007395</v>
+        <v>0.001462590647861362</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.002025597728788853</v>
+        <v>0.01018988434225321</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.002440985990688205</v>
+        <v>0.001390985795296729</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.00294505013152957</v>
+        <v>0.005000175908207893</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.01578666642308235</v>
+        <v>0.004867156501859426</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.004943870939314365</v>
+        <v>0.01179278083145618</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.001680634450167418</v>
+        <v>0.008075185120105743</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.002657066797837615</v>
+        <v>0.00203756894916296</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.006656575947999954</v>
+        <v>0.004984760656952858</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.01932862587273121</v>
+        <v>0.0005848949076607823</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.004874174948781729</v>
+        <v>0.002052352298051119</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.005094549153000116</v>
+        <v>0.005738188978284597</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.004332181997597218</v>
+        <v>0.009769227355718613</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.009674042463302612</v>
+        <v>0.006421963218599558</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.008569514378905296</v>
+        <v>0.01212932541966438</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.01588338240981102</v>
+        <v>0.003591637592762709</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.006912737619131804</v>
+        <v>0.01632042229175568</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.005774259101599455</v>
+        <v>0.007776805199682713</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.006432771682739258</v>
+        <v>0.01544382702559233</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.0008018782245926559</v>
+        <v>0.005525989457964897</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.004785560537129641</v>
+        <v>0.006826001219451427</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.001669785589911044</v>
+        <v>0.006988033652305603</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.0160345621407032</v>
+        <v>0.01204719766974449</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.002717853058129549</v>
+        <v>0.006097020581364632</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.002127363346517086</v>
+        <v>0.0004247152828611434</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.0001297137932851911</v>
+        <v>0.006261010188609362</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.01013585831969976</v>
+        <v>0.01583071239292622</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.003571402514353395</v>
+        <v>0.006297079846262932</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.004840070381760597</v>
+        <v>0.02007991634309292</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.002238321350887418</v>
+        <v>0.005366129800677299</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.002430965891107917</v>
+        <v>0.006145531311631203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.002420608652755618</v>
+        <v>0.02638169750571251</v>
       </c>
       <c r="B13" t="n">
-        <v>0.001044190023094416</v>
+        <v>0.1381005495786667</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02171427942812443</v>
+        <v>0.02170850522816181</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001443382469005883</v>
+        <v>0.02795634418725967</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00558826420456171</v>
+        <v>0.04760324582457542</v>
       </c>
       <c r="F13" t="n">
-        <v>0.004353768192231655</v>
+        <v>0.006263069342821836</v>
       </c>
       <c r="G13" t="n">
-        <v>0.002502321731299162</v>
+        <v>0.028009083122015</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01216407120227814</v>
+        <v>0.01248601730912924</v>
       </c>
       <c r="I13" t="n">
-        <v>0.005657482892274857</v>
+        <v>0.05048311501741409</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00133991427719593</v>
+        <v>0.03060773946344852</v>
       </c>
       <c r="K13" t="n">
-        <v>0.006373618729412556</v>
+        <v>0.106024332344532</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02082576602697372</v>
+        <v>0.01435147318989038</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00469852052628994</v>
+        <v>0.03666195273399353</v>
       </c>
       <c r="N13" t="n">
-        <v>0.004000874236226082</v>
+        <v>0.06656590104103088</v>
       </c>
       <c r="O13" t="n">
-        <v>0.005259251687675714</v>
+        <v>0.02295992150902748</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0005582970916293561</v>
+        <v>0.01637142337858677</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01422803103923798</v>
+        <v>0.006837945431470871</v>
       </c>
       <c r="R13" t="n">
-        <v>0.008283906616270542</v>
+        <v>0.04091234877705574</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0005571944057010114</v>
+        <v>0.003505364758893847</v>
       </c>
       <c r="T13" t="n">
-        <v>0.007316869217902422</v>
+        <v>0.02793814614415169</v>
       </c>
       <c r="U13" t="n">
-        <v>0.001446596230380237</v>
+        <v>0.01418139319866896</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0005707244854420424</v>
+        <v>0.01398956030607224</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0028007454238832</v>
+        <v>0.006541127804666758</v>
       </c>
       <c r="X13" t="n">
-        <v>4.465707752387971e-05</v>
+        <v>0.009869223460555077</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.001768699614331126</v>
+        <v>0.01037963107228279</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.006646681111305952</v>
+        <v>0.001695226179435849</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.00193564803339541</v>
+        <v>0.01084837131202221</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0007634131470695138</v>
+        <v>0.02183464169502258</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0006157493335194886</v>
+        <v>0.03316264227032661</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.001055230270139873</v>
+        <v>0.01090404391288757</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.002268514595925808</v>
+        <v>0.001627233810722828</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.003659117734059691</v>
+        <v>0.01117252465337515</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.001760223996825516</v>
+        <v>0.0173327811062336</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.003533919109031558</v>
+        <v>0.005927152931690216</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.002871745266020298</v>
+        <v>0.01172339171171188</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.005633673164993525</v>
+        <v>0.002023837529122829</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.0008404426625929773</v>
+        <v>0.01147243566811085</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.003445984330028296</v>
+        <v>0.01952119171619415</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.004088481888175011</v>
+        <v>0.01050399616360664</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0002355987962801009</v>
+        <v>0.001567675732076168</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.003848317777737975</v>
+        <v>0.006391385104507208</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.002267951844260097</v>
+        <v>0.01990148983895779</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.0001975437917280942</v>
+        <v>0.009837944060564041</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.002758835442364216</v>
+        <v>0.006646727211773396</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0008046256261877716</v>
+        <v>0.006745255086570978</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.0007076292531564832</v>
+        <v>0.005278685130178928</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.001760542276315391</v>
+        <v>0.0931229293346405</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.009570719674229622</v>
+        <v>0.0106997974216938</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.004322420805692673</v>
+        <v>0.00439627468585968</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.004077393095940351</v>
+        <v>0.005013254471123219</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.001173559227026999</v>
+        <v>0.009014843963086605</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.0001674264785833657</v>
+        <v>0.02187421545386314</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0006113388808444142</v>
+        <v>0.01375751849263906</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.003638704307377338</v>
+        <v>0.005832364782691002</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.000652967719361186</v>
+        <v>0.01135450415313244</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.001192824565805495</v>
+        <v>0.03308910876512527</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.005422080401331186</v>
+        <v>0.01972637139260769</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.001711256220005453</v>
+        <v>0.00878443755209446</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.008289494551718235</v>
+        <v>0.0510270968079567</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.00251239538192749</v>
+        <v>0.01555666700005531</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.001477936049923301</v>
+        <v>0.01099413260817528</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.009675297886133194</v>
+        <v>0.003944078925997019</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.001567079918459058</v>
+        <v>0.0250767357647419</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0005831330781802535</v>
+        <v>0.01674451865255833</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.001745085697621107</v>
+        <v>0.005608344450592995</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.003552470356225967</v>
+        <v>0.001372253987938166</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.0001155219360953197</v>
+        <v>0.02365433052182198</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.002344569191336632</v>
+        <v>0.03543695062398911</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.001266197999939322</v>
+        <v>0.02900507487356663</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.001037886831909418</v>
+        <v>0.00376034202054143</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.004422349855303764</v>
+        <v>0.006075744517147541</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.002833562204614282</v>
+        <v>0.006027309689670801</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.001122468034736812</v>
+        <v>0.006107655353844166</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.001239069271832705</v>
+        <v>0.05891247466206551</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.007678131107240915</v>
+        <v>0.01863001100718975</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.0007290015928447247</v>
+        <v>0.008730081841349602</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.0005960703128948808</v>
+        <v>0.0009706891141831875</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.001418357249349356</v>
+        <v>0.008724164217710495</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.0001658275868976489</v>
+        <v>0.007277193013578653</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.003449696581810713</v>
+        <v>0.01193704549223185</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.001770689152181149</v>
+        <v>0.0121668791398406</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.001738141058012843</v>
+        <v>0.001213258015923202</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.001320169772952795</v>
+        <v>0.0262223593890667</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.003999263048171997</v>
+        <v>0.0006281975074671209</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0003326510777696967</v>
+        <v>0.002317177364602685</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.0006125824875198305</v>
+        <v>0.0008515879744663835</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.00101646629627794</v>
+        <v>0.002435804344713688</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.001322149997577071</v>
+        <v>0.001259803306311369</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.001361579983495176</v>
+        <v>0.001125571085140109</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.001288956846110523</v>
+        <v>0.01406137458980083</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.001032429281622171</v>
+        <v>0.0375424437224865</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.002694891067221761</v>
+        <v>0.03812947869300842</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0005136406980454922</v>
+        <v>0.001910649472847581</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.000523715338204056</v>
+        <v>0.00429565878584981</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.002927417401224375</v>
+        <v>0.0007239821134135127</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.003674544859677553</v>
+        <v>0.0004667090252041817</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.001830536406487226</v>
+        <v>0.02075593918561935</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.003412025514990091</v>
+        <v>0.03065007552504539</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.005378935486078262</v>
+        <v>0.0005817064084112644</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.002122821984812617</v>
+        <v>0.001411077566444874</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.0005861555691808462</v>
+        <v>0.02317375689744949</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.004493935033679008</v>
+        <v>0.004101711791008711</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.0001578029769007117</v>
+        <v>0.003279739757999778</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.002796546788886189</v>
+        <v>0.003003102261573076</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.0007610779721289873</v>
+        <v>0.00183054618537426</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.001023038639687002</v>
+        <v>0.0001665211748331785</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.001138812629505992</v>
+        <v>0.0007390970131382346</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.0001917735644383356</v>
+        <v>0.009107289835810661</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.001057841465808451</v>
+        <v>0.003416450694203377</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.001667961594648659</v>
+        <v>0.03391409292817116</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.002218785928562284</v>
+        <v>0.01469886023551226</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.004966707900166512</v>
+        <v>0.02375327609479427</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.002372839255258441</v>
+        <v>0.007962453179061413</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.002086466643959284</v>
+        <v>0.003450471209362149</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.0008345053647644818</v>
+        <v>0.02211124263703823</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.001775333075784147</v>
+        <v>0.003940454684197903</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0006542811170220375</v>
+        <v>0.008871002122759819</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.0002187190984841436</v>
+        <v>0.002413520822301507</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.001520085264928639</v>
+        <v>0.007504138629883528</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0009485321352258325</v>
+        <v>0.007612257264554501</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.0004632037889678031</v>
+        <v>0.007347287610173225</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.003048746380954981</v>
+        <v>0.002905009314417839</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.0008501224219799042</v>
+        <v>0.004829124081879854</v>
       </c>
       <c r="DT13" t="n">
-        <v>2.813481842167675e-06</v>
+        <v>0.01815426163375378</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.003487224224954844</v>
+        <v>0.00515022361651063</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.001504772808402777</v>
+        <v>0.002322268672287464</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.001886977697722614</v>
+        <v>0.001184798311442137</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.001033138949424028</v>
+        <v>0.01223612017929554</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.0004785414203070104</v>
+        <v>0.000684474129229784</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.001473568147048354</v>
+        <v>1.305164187215269e-05</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0008839606889523566</v>
+        <v>0.009605107828974724</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.001293946988880634</v>
+        <v>0.003113957587629557</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.001474861172027886</v>
+        <v>0.00399741530418396</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.003773720236495137</v>
+        <v>0.02333650179207325</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.0004207888268865645</v>
+        <v>0.006719944998621941</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.001388370990753174</v>
+        <v>0.004128623753786087</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.00107242539525032</v>
+        <v>0.01101913210004568</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.003594099543988705</v>
+        <v>0.001321070827543736</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0001144069174188189</v>
+        <v>0.01132386457175016</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0002287064853589982</v>
+        <v>0.008086150512099266</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.001311030588112772</v>
+        <v>0.003908899147063494</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.0007797059370204806</v>
+        <v>0.01167917996644974</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.002622991800308228</v>
+        <v>0.0003938049776479602</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.001922969240695238</v>
+        <v>0.01743280701339245</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.001741890679113567</v>
+        <v>0.01209840551018715</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.001097553293220699</v>
+        <v>0.0264244619756937</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.0004164889105595648</v>
+        <v>0.01263107545673847</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.002262483583763242</v>
+        <v>0.00496992189437151</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.0009481327142566442</v>
+        <v>0.002928606467321515</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.001632001949474216</v>
+        <v>0.003136508632451296</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.001293775625526905</v>
+        <v>0.006861296482384205</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.00110669934656471</v>
+        <v>0.003606870770454407</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.004094866104424</v>
+        <v>0.005860562436282635</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.00121122132986784</v>
+        <v>0.0002622977190185338</v>
       </c>
       <c r="EY13" t="n">
-        <v>9.553412382956594e-06</v>
+        <v>0.02743009477853775</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.00437554344534874</v>
+        <v>9.215943282470107e-05</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0005462213885039091</v>
+        <v>0.001770790317095816</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.00220667221583426</v>
+        <v>0.003057426540181041</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.0002727470709942281</v>
+        <v>0.005230897571891546</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.0008952899370342493</v>
+        <v>0.0001191073097288609</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.001959358109161258</v>
+        <v>0.002831256482750177</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.000749871542211622</v>
+        <v>0.008041288703680038</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.003891538362950087</v>
+        <v>0.0007863603532314301</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.0001754252007231116</v>
+        <v>0.0120293851941824</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.005456961691379547</v>
+        <v>0.009794740006327629</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.001212137984111905</v>
+        <v>0.01015857420861721</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.0002597783750388771</v>
+        <v>0.009985265322029591</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.00514847319573164</v>
+        <v>0.0008652890101075172</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.004002771805971861</v>
+        <v>0.00597020611166954</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.0004871668061241508</v>
+        <v>0.007539165671914816</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.001177825266495347</v>
+        <v>0.01604060083627701</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.008167915977537632</v>
+        <v>0.01360338553786278</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.004949291236698627</v>
+        <v>0.01331809535622597</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.005369200836867094</v>
+        <v>0.01180979888886213</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.003075148677453399</v>
+        <v>0.00297286082059145</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.002691708970814943</v>
+        <v>0.01033383794128895</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.002216950757429004</v>
+        <v>0.01068012230098248</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.002393382368609309</v>
+        <v>0.02002562209963799</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.0002087337925331667</v>
+        <v>0.02476439066231251</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.004886582028120756</v>
+        <v>0.01146345585584641</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.002318121492862701</v>
+        <v>0.02097207494080067</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.0008372542797587812</v>
+        <v>0.01473355945199728</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.0007401190814562142</v>
+        <v>0.008245114237070084</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.003223105799406767</v>
+        <v>0.009889477863907814</v>
       </c>
       <c r="GC13" t="n">
-        <v>1.650865306146443e-05</v>
+        <v>0.01878736168146133</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.004626438487321138</v>
+        <v>0.02372186258435249</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.001258414704352617</v>
+        <v>0.02187224477529526</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.0009486406343057752</v>
+        <v>0.01612873189151287</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.002301823347806931</v>
+        <v>0.004625734873116016</v>
       </c>
     </row>
     <row r="14">
@@ -8401,2278 +8401,2278 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.04505849257111549</v>
+        <v>0.05087659507989883</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01001303642988205</v>
+        <v>0.6551549434661865</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3038394749164581</v>
+        <v>0.5674992799758911</v>
       </c>
       <c r="D15" t="n">
-        <v>0.004739107564091682</v>
+        <v>0.2443849295377731</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1606617271900177</v>
+        <v>0.7310421466827393</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3962674140930176</v>
+        <v>0.07958438992500305</v>
       </c>
       <c r="G15" t="n">
-        <v>0.08649887144565582</v>
+        <v>0.279327392578125</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07128508388996124</v>
+        <v>0.2367377281188965</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05147291719913483</v>
+        <v>0.3321493566036224</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02473043277859688</v>
+        <v>0.1313386261463165</v>
       </c>
       <c r="K15" t="n">
-        <v>0.05517645552754402</v>
+        <v>0.466825544834137</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2832368016242981</v>
+        <v>0.3783947825431824</v>
       </c>
       <c r="M15" t="n">
-        <v>0.09187579154968262</v>
+        <v>0.1917919367551804</v>
       </c>
       <c r="N15" t="n">
-        <v>0.109711728990078</v>
+        <v>0.8066661953926086</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3953241109848022</v>
+        <v>0.126898393034935</v>
       </c>
       <c r="P15" t="n">
-        <v>0.04509364441037178</v>
+        <v>0.2723886370658875</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02821246720850468</v>
+        <v>0.1594605892896652</v>
       </c>
       <c r="R15" t="n">
-        <v>0.08481401950120926</v>
+        <v>0.2525058090686798</v>
       </c>
       <c r="S15" t="n">
-        <v>0.03772680833935738</v>
+        <v>0.02855133265256882</v>
       </c>
       <c r="T15" t="n">
-        <v>0.02486585825681686</v>
+        <v>0.1152994111180305</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0155284870415926</v>
+        <v>0.007808821275830269</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01686493307352066</v>
+        <v>0.1589225828647614</v>
       </c>
       <c r="W15" t="n">
-        <v>0.01691543124616146</v>
+        <v>0.1012454107403755</v>
       </c>
       <c r="X15" t="n">
-        <v>0.05227166414260864</v>
+        <v>0.1490786224603653</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.03980457782745361</v>
+        <v>0.004327455535531044</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.09259476512670517</v>
+        <v>0.1286806166172028</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.01776523515582085</v>
+        <v>0.07079032808542252</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.01312801335006952</v>
+        <v>0.07417525351047516</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.1091994941234589</v>
+        <v>0.1701214760541916</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.019300552085042</v>
+        <v>0.003837145864963531</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.01296576671302319</v>
+        <v>0.1107606291770935</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.1638763546943665</v>
+        <v>0.05915375798940659</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.02300864458084106</v>
+        <v>0.1247408464550972</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.06388726830482483</v>
+        <v>0.0136243924498558</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.09087091684341431</v>
+        <v>0.06574058532714844</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.1028883084654808</v>
+        <v>0.02492513135075569</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.02780927717685699</v>
+        <v>0.006663396954536438</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.007933635264635086</v>
+        <v>0.3569846749305725</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.1177893579006195</v>
+        <v>0.004030823707580566</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.01727943494915962</v>
+        <v>0.06992025673389435</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0202015470713377</v>
+        <v>0.009083693847060204</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.07576099783182144</v>
+        <v>0.1487974226474762</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.02282658591866493</v>
+        <v>0.02254658192396164</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.03144887089729309</v>
+        <v>0.03750970214605331</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.02487684600055218</v>
+        <v>0.1108453348278999</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.07219766080379486</v>
+        <v>0.1803907006978989</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.005876157432794571</v>
+        <v>0.5895699262619019</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.1455692201852798</v>
+        <v>0.3790908753871918</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.07872077077627182</v>
+        <v>0.0575115866959095</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.08310475200414658</v>
+        <v>0.1414304226636887</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.1432257741689682</v>
+        <v>0.1834969967603683</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.01171393319964409</v>
+        <v>0.01015175879001617</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.01734178513288498</v>
+        <v>0.011645233258605</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.03892435133457184</v>
+        <v>0.1124794781208038</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.02094103395938873</v>
+        <v>0.0431271605193615</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.01389104779809713</v>
+        <v>0.03053856641054153</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.001352937892079353</v>
+        <v>0.05798040330410004</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.02360796183347702</v>
+        <v>0.2798956632614136</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.199292853474617</v>
+        <v>0.6100434064865112</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.1022671088576317</v>
+        <v>0.03262158110737801</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.08699525147676468</v>
+        <v>0.1656705737113953</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.002239087596535683</v>
+        <v>0.07732705026865005</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.009411683306097984</v>
+        <v>0.1641398519277573</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.004536610562354326</v>
+        <v>0.2245603054761887</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.01739021018147469</v>
+        <v>0.2150991857051849</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.04497157037258148</v>
+        <v>0.05522866547107697</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.04297798126935959</v>
+        <v>0.0587795153260231</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.01802870258688927</v>
+        <v>0.1237502098083496</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.0002011023461818695</v>
+        <v>0.1589523255825043</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.002101977588608861</v>
+        <v>0.1490662693977356</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.06721438467502594</v>
+        <v>0.09714406728744507</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.03980576619505882</v>
+        <v>0.1061887145042419</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.04486469551920891</v>
+        <v>0.1371117234230042</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.03576335310935974</v>
+        <v>0.3253659605979919</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.1002036109566689</v>
+        <v>0.3999916911125183</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.0031988057307899</v>
+        <v>0.005585707724094391</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.005556528456509113</v>
+        <v>0.1146147325634956</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.1622446328401566</v>
+        <v>0.1014298796653748</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.0472884327173233</v>
+        <v>0.0402594730257988</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.01834427565336227</v>
+        <v>0.03187799453735352</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.03356818109750748</v>
+        <v>0.009496085345745087</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.009637118317186832</v>
+        <v>0.005182996392250061</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.00850581843405962</v>
+        <v>0.09676089882850647</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.05452714115381241</v>
+        <v>0.07527307420969009</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.03045968152582645</v>
+        <v>0.1311590522527695</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.02253690361976624</v>
+        <v>0.1575766354799271</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.07668588310480118</v>
+        <v>0.03721575811505318</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.005879435688257217</v>
+        <v>0.001892564352601767</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.003234395757317543</v>
+        <v>0.06878098100423813</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.004984263330698013</v>
+        <v>0.07268635183572769</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.06917354464530945</v>
+        <v>0.1553008109331131</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.009610669687390327</v>
+        <v>0.1105695888400078</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.1160792484879494</v>
+        <v>0.02541904337704182</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.02490421012043953</v>
+        <v>0.2425942271947861</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.08230802416801453</v>
+        <v>0.2039075642824173</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.05723731219768524</v>
+        <v>0.1053209602832794</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.05587304383516312</v>
+        <v>0.14927938580513</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.02930070459842682</v>
+        <v>0.06514639407396317</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.09068872779607773</v>
+        <v>0.05760979279875755</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.01975159347057343</v>
+        <v>0.02922976016998291</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.006959149613976479</v>
+        <v>0.02999508753418922</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.04849082976579666</v>
+        <v>0.06534281373023987</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.03327389433979988</v>
+        <v>0.1060666590929031</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.05037471652030945</v>
+        <v>0.129588320851326</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.07393750548362732</v>
+        <v>0.05452645197510719</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.007833453826606274</v>
+        <v>0.006788872182369232</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.02600608579814434</v>
+        <v>0.03634814918041229</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.002300434978678823</v>
+        <v>0.127794086933136</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.008894453756511211</v>
+        <v>0.1504220068454742</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.05392933636903763</v>
+        <v>0.05551958084106445</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.05121802538633347</v>
+        <v>0.1118040233850479</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.03716972842812538</v>
+        <v>0.313539445400238</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.06005700677633286</v>
+        <v>0.03317458182573318</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.04640927910804749</v>
+        <v>0.06216038390994072</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.07212655246257782</v>
+        <v>0.08455443382263184</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.1085209250450134</v>
+        <v>0.1646832972764969</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.03845356032252312</v>
+        <v>0.1734495460987091</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.003149881027638912</v>
+        <v>0.09073086082935333</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.04309302568435669</v>
+        <v>0.03581081703305244</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.007802622392773628</v>
+        <v>0.04676191508769989</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.0172019936144352</v>
+        <v>0.1062984466552734</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.0355897918343544</v>
+        <v>0.1561384946107864</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.0009093080880120397</v>
+        <v>0.1888758391141891</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.02749602310359478</v>
+        <v>0.02415505982935429</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.01953215152025223</v>
+        <v>0.03749634698033333</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.02491053938865662</v>
+        <v>0.04469552263617516</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.05053767189383507</v>
+        <v>0.07998201251029968</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.007743753492832184</v>
+        <v>0.1005874872207642</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.009262910112738609</v>
+        <v>0.09500700235366821</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.03484949469566345</v>
+        <v>0.07233388721942902</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.02255794405937195</v>
+        <v>0.1225016638636589</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.01095091179013252</v>
+        <v>0.2058645933866501</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.05126601830124855</v>
+        <v>0.01248658169060946</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.02264448441565037</v>
+        <v>0.07837804406881332</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.01519558392465115</v>
+        <v>0.01626089215278625</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.007732188329100609</v>
+        <v>0.03519788384437561</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.05332192033529282</v>
+        <v>0.05209698528051376</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.06296398490667343</v>
+        <v>0.04099832475185394</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.01269745174795389</v>
+        <v>0.05698300525546074</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.08427312970161438</v>
+        <v>0.1936584562063217</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.1002148166298866</v>
+        <v>0.04288386553525925</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.01183889620006084</v>
+        <v>0.09687155485153198</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.003234340343624353</v>
+        <v>0.02353386580944061</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.04142294824123383</v>
+        <v>0.1337963044643402</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.02156431414186954</v>
+        <v>0.05121636763215065</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.03548196703195572</v>
+        <v>0.04193691909313202</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.0002698632888495922</v>
+        <v>0.0941179096698761</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.01351212337613106</v>
+        <v>0.1078903749585152</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.0004297769628465176</v>
+        <v>0.03584827482700348</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.02204019017517567</v>
+        <v>0.2015871703624725</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.05793265998363495</v>
+        <v>0.08830837160348892</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.04141189157962799</v>
+        <v>0.1253560036420822</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.06027782708406448</v>
+        <v>0.2597638070583344</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.0006296701030805707</v>
+        <v>0.006284326314926147</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.01713654398918152</v>
+        <v>0.01666093617677689</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.0472060963511467</v>
+        <v>0.06052092090249062</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.02810229361057281</v>
+        <v>0.1433342844247818</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.04824082925915718</v>
+        <v>0.1427036672830582</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.06431721150875092</v>
+        <v>0.0803791880607605</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.005900760646909475</v>
+        <v>0.03324206918478012</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.02029533870518208</v>
+        <v>0.1015682891011238</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.002339223632588983</v>
+        <v>0.05603266134858131</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.05528070032596588</v>
+        <v>0.05391434580087662</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.00899956002831459</v>
+        <v>0.2170421779155731</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.06563874334096909</v>
+        <v>0.1610262095928192</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.0263561699539423</v>
+        <v>0.0692000687122345</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.008503428660333157</v>
+        <v>0.1508391499519348</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.05297564342617989</v>
+        <v>0.008993562310934067</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.07422995567321777</v>
+        <v>0.156096339225769</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.005921777337789536</v>
+        <v>0.01165476627647877</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.01496094092726707</v>
+        <v>0.1292327493429184</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.1845788359642029</v>
+        <v>0.008302941918373108</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.04930912703275681</v>
+        <v>0.1076796129345894</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.1118511855602264</v>
+        <v>0.2010010480880737</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.1059999391436577</v>
+        <v>0.3002151250839233</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.07252912223339081</v>
+        <v>0.03944172710180283</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.1543523669242859</v>
+        <v>0.02006193809211254</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.01428280770778656</v>
+        <v>0.1319470703601837</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.01965086907148361</v>
+        <v>0.2409802228212357</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.04841404408216476</v>
+        <v>0.01767439022660255</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.03076863847672939</v>
+        <v>0.1085974276065826</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.02617692202329636</v>
+        <v>0.06191705912351608</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.02436725795269012</v>
+        <v>0.1324360966682434</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.004981468431651592</v>
+        <v>0.06201763823628426</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.04048768803477287</v>
+        <v>0.09203535318374634</v>
       </c>
       <c r="GD15" t="n">
-        <v>8.922256529331207e-05</v>
+        <v>0.2361350208520889</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.0005660699680447578</v>
+        <v>0.1564380675554276</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.09322027862071991</v>
+        <v>0.4043647348880768</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.03941494971513748</v>
+        <v>0.08564833551645279</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.008859295397996902</v>
+        <v>0.0001171166441054083</v>
       </c>
       <c r="B16" t="n">
-        <v>0.03171634301543236</v>
+        <v>0.001237048185430467</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03347476944327354</v>
+        <v>0.0001067018674802966</v>
       </c>
       <c r="D16" t="n">
-        <v>0.05855018272995949</v>
+        <v>0.0004314736288506538</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001027839258313179</v>
+        <v>0.0003088231314904988</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1786279529333115</v>
+        <v>0.0006134618306532502</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02832088619470596</v>
+        <v>5.732083081966266e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1250499784946442</v>
+        <v>0.0003735339269042015</v>
       </c>
       <c r="I16" t="n">
-        <v>0.04519640654325485</v>
+        <v>6.168369509396143e-06</v>
       </c>
       <c r="J16" t="n">
-        <v>0.01724466495215893</v>
+        <v>0.000218141358345747</v>
       </c>
       <c r="K16" t="n">
-        <v>0.005774995312094688</v>
+        <v>0.001158298342488706</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03970362618565559</v>
+        <v>1.446435453544836e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0547695979475975</v>
+        <v>0.0002432382898405194</v>
       </c>
       <c r="N16" t="n">
-        <v>0.034969262778759</v>
+        <v>1.148731826106086e-06</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1576086729764938</v>
+        <v>0.0006787022575736046</v>
       </c>
       <c r="P16" t="n">
-        <v>0.01107044797390699</v>
+        <v>7.027263927739114e-05</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1281584352254868</v>
+        <v>0.0001337644644081593</v>
       </c>
       <c r="R16" t="n">
-        <v>0.08046214282512665</v>
+        <v>3.434595419093966e-05</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01764339208602905</v>
+        <v>4.552691098069772e-05</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01238476578146219</v>
+        <v>0.0001019271439872682</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009364960715174675</v>
+        <v>6.771088374080136e-05</v>
       </c>
       <c r="V16" t="n">
-        <v>0.03641775622963905</v>
+        <v>0.0001876055321190506</v>
       </c>
       <c r="W16" t="n">
-        <v>0.04429053142666817</v>
+        <v>0.0001159649837063625</v>
       </c>
       <c r="X16" t="n">
-        <v>0.02445331029593945</v>
+        <v>6.212814696482383e-06</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.01828141324222088</v>
+        <v>2.402502832410391e-05</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.01533904671669006</v>
+        <v>0.0001151540491264313</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.001737736631184816</v>
+        <v>3.298263618489727e-05</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0003787288442254066</v>
+        <v>1.940578658832237e-05</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.009919610805809498</v>
+        <v>1.087259988707956e-05</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.000670520355924964</v>
+        <v>4.072104638908058e-05</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.03059072606265545</v>
+        <v>9.967650839826092e-05</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.04993116855621338</v>
+        <v>9.171065903501585e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.00372714689001441</v>
+        <v>9.97924325929489e-06</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.04500691220164299</v>
+        <v>1.886056452349294e-05</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.004363737534731627</v>
+        <v>0.00010916428436758</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.01058131083846092</v>
+        <v>7.179049134720117e-05</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.005558229517191648</v>
+        <v>0.0002299183834111318</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.01555577199906111</v>
+        <v>8.248706581071019e-05</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.02938513644039631</v>
+        <v>1.746865382301621e-05</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.01251473184674978</v>
+        <v>9.815226803766564e-06</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.05053071677684784</v>
+        <v>6.595397280761972e-05</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.03013447672128677</v>
+        <v>0.0001731083902996033</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.004214107058942318</v>
+        <v>4.989786248188466e-05</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.0178622305393219</v>
+        <v>0.0001092257371055894</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.008278202265501022</v>
+        <v>0.0001408308889949694</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.002122259698808193</v>
+        <v>2.921795021393336e-05</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.007276207208633423</v>
+        <v>0.000686386541929096</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.01225310005247593</v>
+        <v>0.0001776876015355811</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.01975171081721783</v>
+        <v>3.172630749759264e-05</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.005442201159894466</v>
+        <v>0.0002155125694116578</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.08196268975734711</v>
+        <v>0.0002793985768221319</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.002049603499472141</v>
+        <v>8.236093708546832e-05</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.06639771163463593</v>
+        <v>0.0001498496276326478</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.02699127793312073</v>
+        <v>0.0001002957942546345</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.007696677464991808</v>
+        <v>3.35571967298165e-05</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.009168470278382301</v>
+        <v>0.000255537626799196</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.01669124327600002</v>
+        <v>0.0003351273480802774</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.0585649199783802</v>
+        <v>3.310872489237227e-05</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.025087621062994</v>
+        <v>8.064659050432965e-05</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.03086575120687485</v>
+        <v>0.0001000667907646857</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.01279752608388662</v>
+        <v>0.0001175436555058695</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.03264591470360756</v>
+        <v>5.158224666956812e-05</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.01257234066724777</v>
+        <v>4.267237090971321e-05</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.01325130648910999</v>
+        <v>8.67922353791073e-05</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.01430647913366556</v>
+        <v>0.0001645397569518536</v>
       </c>
       <c r="BN16" t="n">
-        <v>0.005485368426889181</v>
+        <v>0.0001411358680343255</v>
       </c>
       <c r="BO16" t="n">
-        <v>0.00214356929063797</v>
+        <v>3.725633723661304e-05</v>
       </c>
       <c r="BP16" t="n">
-        <v>0.009463513270020485</v>
+        <v>4.047788388561457e-05</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0.01834632828831673</v>
+        <v>3.611511419876479e-05</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.0191776230931282</v>
+        <v>7.142277172533795e-05</v>
       </c>
       <c r="BS16" t="n">
-        <v>0.00688994349911809</v>
+        <v>8.146472828229889e-05</v>
       </c>
       <c r="BT16" t="n">
-        <v>0.008973616175353527</v>
+        <v>0.0001771178212948143</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.02145813032984734</v>
+        <v>3.812959403148852e-05</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.002020369982346892</v>
+        <v>0.0004195033689029515</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.003725570160895586</v>
+        <v>0.0001338043803116307</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.006829394493252039</v>
+        <v>1.615720975678414e-05</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.007656976580619812</v>
+        <v>9.103412594413385e-05</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.05813394114375114</v>
+        <v>0.0001687228505034</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.01414408814162016</v>
+        <v>2.878321356547531e-05</v>
       </c>
       <c r="CB16" t="n">
-        <v>0.04088821262121201</v>
+        <v>5.570114080910571e-05</v>
       </c>
       <c r="CC16" t="n">
-        <v>0.01743340864777565</v>
+        <v>4.579787855618633e-05</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.01439310051500797</v>
+        <v>4.315476326155476e-05</v>
       </c>
       <c r="CE16" t="n">
-        <v>0.006530728656798601</v>
+        <v>0.0002360898215556517</v>
       </c>
       <c r="CF16" t="n">
-        <v>0.009431025944650173</v>
+        <v>9.1514055384323e-05</v>
       </c>
       <c r="CG16" t="n">
-        <v>0.02488287165760994</v>
+        <v>7.011259731370956e-05</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.006875216960906982</v>
+        <v>5.832851456943899e-05</v>
       </c>
       <c r="CI16" t="n">
-        <v>0.03025179542601109</v>
+        <v>4.306236587581225e-05</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.006369692273437977</v>
+        <v>6.251956074265763e-05</v>
       </c>
       <c r="CK16" t="n">
-        <v>0.01540804002434015</v>
+        <v>8.669171074870974e-05</v>
       </c>
       <c r="CL16" t="n">
-        <v>0.004596571903675795</v>
+        <v>6.106386717874557e-05</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.04027210921049118</v>
+        <v>0.0002791569568216801</v>
       </c>
       <c r="CN16" t="n">
-        <v>0.01155408378690481</v>
+        <v>0.0001084002433344722</v>
       </c>
       <c r="CO16" t="n">
-        <v>0.01179807074368</v>
+        <v>5.603586487268331e-06</v>
       </c>
       <c r="CP16" t="n">
-        <v>0.03541835397481918</v>
+        <v>0.0002151614025933668</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.05115728080272675</v>
+        <v>0.0001465432142140344</v>
       </c>
       <c r="CR16" t="n">
-        <v>0.03369573876261711</v>
+        <v>0.0003277101495768875</v>
       </c>
       <c r="CS16" t="n">
-        <v>0.01492080558091402</v>
+        <v>0.0002248292585136369</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.02280155383050442</v>
+        <v>6.952360126888379e-05</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.02259252965450287</v>
+        <v>5.762340151704848e-05</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.01401479076594114</v>
+        <v>3.773729258682579e-05</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.01353525370359421</v>
+        <v>0.0002261948538944125</v>
       </c>
       <c r="CX16" t="n">
-        <v>0.009481092914938927</v>
+        <v>0.0001248415355803445</v>
       </c>
       <c r="CY16" t="n">
-        <v>0.01838190481066704</v>
+        <v>0.000122028446639888</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.008863682858645916</v>
+        <v>5.122640504851006e-05</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.03521805629134178</v>
+        <v>6.338359526125714e-05</v>
       </c>
       <c r="DB16" t="n">
-        <v>0.002678390126675367</v>
+        <v>5.995520405122079e-05</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.02582612261176109</v>
+        <v>0.0001494045718573034</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.003328854683786631</v>
+        <v>5.021639663027599e-05</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.02800671756267548</v>
+        <v>0.0001370056997984648</v>
       </c>
       <c r="DF16" t="n">
-        <v>0.03276712819933891</v>
+        <v>6.6605512984097e-05</v>
       </c>
       <c r="DG16" t="n">
-        <v>0.001792874187231064</v>
+        <v>4.331540822022362e-06</v>
       </c>
       <c r="DH16" t="n">
-        <v>0.03424135595560074</v>
+        <v>0.0004261558351572603</v>
       </c>
       <c r="DI16" t="n">
-        <v>0.02441610395908356</v>
+        <v>0.0004867747484240681</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0.03388709202408791</v>
+        <v>8.768583938945085e-05</v>
       </c>
       <c r="DK16" t="n">
-        <v>0.03159553557634354</v>
+        <v>0.0001551551395095885</v>
       </c>
       <c r="DL16" t="n">
-        <v>0.005367277190089226</v>
+        <v>0.0001668906043050811</v>
       </c>
       <c r="DM16" t="n">
-        <v>0.03061887063086033</v>
+        <v>0.0001775909477146342</v>
       </c>
       <c r="DN16" t="n">
-        <v>0.02557100355625153</v>
+        <v>7.034532609395683e-05</v>
       </c>
       <c r="DO16" t="n">
-        <v>0.01175113301724195</v>
+        <v>0.0001335168199148029</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.01779907196760178</v>
+        <v>8.827017154544592e-05</v>
       </c>
       <c r="DQ16" t="n">
-        <v>0.02146994881331921</v>
+        <v>0.0001425681984983385</v>
       </c>
       <c r="DR16" t="n">
-        <v>0.02025381475687027</v>
+        <v>4.019356128992513e-05</v>
       </c>
       <c r="DS16" t="n">
-        <v>0.01274792663753033</v>
+        <v>9.399465488968417e-05</v>
       </c>
       <c r="DT16" t="n">
-        <v>0.009996491484344006</v>
+        <v>5.445639544632286e-05</v>
       </c>
       <c r="DU16" t="n">
-        <v>0.00167531706392765</v>
+        <v>0.0001296676200581715</v>
       </c>
       <c r="DV16" t="n">
-        <v>0.01663642749190331</v>
+        <v>5.699021494365297e-05</v>
       </c>
       <c r="DW16" t="n">
-        <v>0.00228895153850317</v>
+        <v>3.70309135178104e-06</v>
       </c>
       <c r="DX16" t="n">
-        <v>0.0005968507612124085</v>
+        <v>5.746578608523123e-05</v>
       </c>
       <c r="DY16" t="n">
-        <v>0.000938442419283092</v>
+        <v>0.0001308555947616696</v>
       </c>
       <c r="DZ16" t="n">
-        <v>0.008869897574186325</v>
+        <v>2.62122048297897e-05</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.001551981084048748</v>
+        <v>7.160037057474256e-05</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.01379404775798321</v>
+        <v>4.216229353914969e-05</v>
       </c>
       <c r="EC16" t="n">
-        <v>0.005117274820804596</v>
+        <v>9.528168448014185e-05</v>
       </c>
       <c r="ED16" t="n">
-        <v>0.005969934165477753</v>
+        <v>2.266719457111321e-05</v>
       </c>
       <c r="EE16" t="n">
-        <v>0.00927805807441473</v>
+        <v>8.482078555971384e-05</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.03328707814216614</v>
+        <v>0.0002097113756462932</v>
       </c>
       <c r="EG16" t="n">
-        <v>0.01044241152703762</v>
+        <v>0.0002718578616622835</v>
       </c>
       <c r="EH16" t="n">
-        <v>9.296748612541705e-05</v>
+        <v>0.0001542687678011134</v>
       </c>
       <c r="EI16" t="n">
-        <v>0.02000199817121029</v>
+        <v>7.639691466465592e-05</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.009895500726997852</v>
+        <v>6.392368231900036e-05</v>
       </c>
       <c r="EK16" t="n">
-        <v>0.03984927758574486</v>
+        <v>5.531381611945108e-05</v>
       </c>
       <c r="EL16" t="n">
-        <v>0.00282082729972899</v>
+        <v>4.676752723753452e-05</v>
       </c>
       <c r="EM16" t="n">
-        <v>0.01620009541511536</v>
+        <v>3.519750316627324e-05</v>
       </c>
       <c r="EN16" t="n">
-        <v>0.002251174533739686</v>
+        <v>1.894168417493347e-05</v>
       </c>
       <c r="EO16" t="n">
-        <v>0.01733957603573799</v>
+        <v>4.368257577880286e-05</v>
       </c>
       <c r="EP16" t="n">
-        <v>0.01018520817160606</v>
+        <v>0.0001042201110976748</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.004007400944828987</v>
+        <v>0.0001334457192569971</v>
       </c>
       <c r="ER16" t="n">
-        <v>0.02205031178891659</v>
+        <v>0.0001554163900436834</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.007897741161286831</v>
+        <v>6.048800423741341e-05</v>
       </c>
       <c r="ET16" t="n">
-        <v>0.004506122786551714</v>
+        <v>0.0001966887502931058</v>
       </c>
       <c r="EU16" t="n">
-        <v>0.01337290275841951</v>
+        <v>0.0001422098866896704</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.0343940481543541</v>
+        <v>0.0002619430888444185</v>
       </c>
       <c r="EW16" t="n">
-        <v>0.009846391156315804</v>
+        <v>5.336994217941537e-05</v>
       </c>
       <c r="EX16" t="n">
-        <v>0.0137320077046752</v>
+        <v>5.828135181218386e-05</v>
       </c>
       <c r="EY16" t="n">
-        <v>0.01154758408665657</v>
+        <v>0.0002111710928147659</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.01184670999646187</v>
+        <v>0.0001042448639054783</v>
       </c>
       <c r="FA16" t="n">
-        <v>0.02212249115109444</v>
+        <v>5.717070598620921e-05</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.008156351745128632</v>
+        <v>4.964388426742516e-05</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.03184772282838821</v>
+        <v>4.557760621537454e-05</v>
       </c>
       <c r="FD16" t="n">
-        <v>0.00629932526499033</v>
+        <v>8.314280421473086e-05</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.0260360985994339</v>
+        <v>0.0001354932901449502</v>
       </c>
       <c r="FF16" t="n">
-        <v>0.001526787877082825</v>
+        <v>7.210381590994075e-05</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.003319691866636276</v>
+        <v>6.569868128281087e-05</v>
       </c>
       <c r="FH16" t="n">
-        <v>0.0145416771993041</v>
+        <v>1.130351756728487e-05</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.01274901069700718</v>
+        <v>0.000204478099476546</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0.03188052028417587</v>
+        <v>0.0001143027839134447</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.003330495208501816</v>
+        <v>0.0001065230462700129</v>
       </c>
       <c r="FL16" t="n">
-        <v>0.009324980899691582</v>
+        <v>0.0001495410542702302</v>
       </c>
       <c r="FM16" t="n">
-        <v>0.002619056729599833</v>
+        <v>6.078604201320559e-06</v>
       </c>
       <c r="FN16" t="n">
-        <v>0.01272061746567488</v>
+        <v>0.0001022393407765776</v>
       </c>
       <c r="FO16" t="n">
-        <v>0.01137086097151041</v>
+        <v>7.502325752284378e-05</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.01040305104106665</v>
+        <v>0.0001868995896074921</v>
       </c>
       <c r="FQ16" t="n">
-        <v>0.01451345253735781</v>
+        <v>2.495248190825805e-05</v>
       </c>
       <c r="FR16" t="n">
-        <v>0.00310908630490303</v>
+        <v>0.0002367871784372255</v>
       </c>
       <c r="FS16" t="n">
-        <v>0.07887619733810425</v>
+        <v>3.807336543104611e-05</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.006789184175431728</v>
+        <v>0.0001447061513317749</v>
       </c>
       <c r="FU16" t="n">
-        <v>0.07290190458297729</v>
+        <v>6.609542469959706e-05</v>
       </c>
       <c r="FV16" t="n">
-        <v>0.01861623674631119</v>
+        <v>3.823870792984962e-05</v>
       </c>
       <c r="FW16" t="n">
-        <v>0.03332890570163727</v>
+        <v>1.530443114461377e-06</v>
       </c>
       <c r="FX16" t="n">
-        <v>0.01864121481776237</v>
+        <v>1.691376564849634e-05</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.006261126138269901</v>
+        <v>0.0002291093696840107</v>
       </c>
       <c r="FZ16" t="n">
-        <v>0.003043806878849864</v>
+        <v>9.376340312883258e-05</v>
       </c>
       <c r="GA16" t="n">
-        <v>0.01385813485831022</v>
+        <v>0.0001315207919105887</v>
       </c>
       <c r="GB16" t="n">
-        <v>0.01767623424530029</v>
+        <v>4.661342245526612e-05</v>
       </c>
       <c r="GC16" t="n">
-        <v>0.0127404760569334</v>
+        <v>4.06546205340419e-05</v>
       </c>
       <c r="GD16" t="n">
-        <v>0.006477102637290955</v>
+        <v>0.0001466636313125491</v>
       </c>
       <c r="GE16" t="n">
-        <v>0.01477402169257402</v>
+        <v>0.0002653019037097692</v>
       </c>
       <c r="GF16" t="n">
-        <v>0.001178053207695484</v>
+        <v>3.391452992218547e-05</v>
       </c>
       <c r="GG16" t="n">
-        <v>0.008828147314488888</v>
+        <v>0.000152897642692551</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0001308644714299589</v>
+        <v>0.0001249665656359866</v>
       </c>
       <c r="B17" t="n">
-        <v>1.350350066786632e-05</v>
+        <v>0.003868176136165857</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0003735599457286298</v>
+        <v>9.836276876740158e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0002554176317062229</v>
+        <v>0.0006247262936085463</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0001472516742069274</v>
+        <v>0.001497651799581945</v>
       </c>
       <c r="F17" t="n">
-        <v>0.001350497477687895</v>
+        <v>0.0004911727737635374</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0002125779865309596</v>
+        <v>0.0001788444060366601</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0007885390659794211</v>
+        <v>0.0005417066859081388</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0002745467354543507</v>
+        <v>2.488811878720298e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001554463378852233</v>
+        <v>3.765890141949058e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001243152801180258</v>
+        <v>0.003379252506420016</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003543123311828822</v>
+        <v>0.0006403201259672642</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0001635354710742831</v>
+        <v>3.880217991536483e-05</v>
       </c>
       <c r="N17" t="n">
-        <v>4.70610975753516e-05</v>
+        <v>0.0009862065780907869</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001145207555964589</v>
+        <v>0.0006737833609804511</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0001547224674141034</v>
+        <v>0.0001403860806021839</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0006978993187658489</v>
+        <v>0.0001442421053070575</v>
       </c>
       <c r="R17" t="n">
-        <v>0.0003728918090928346</v>
+        <v>3.168168041156605e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0001924774114741012</v>
+        <v>3.705840208567679e-05</v>
       </c>
       <c r="T17" t="n">
-        <v>4.570101737044752e-05</v>
+        <v>0.0004803587798960507</v>
       </c>
       <c r="U17" t="n">
-        <v>5.238630183157511e-05</v>
+        <v>7.85202719271183e-05</v>
       </c>
       <c r="V17" t="n">
-        <v>0.0001133120822487399</v>
+        <v>0.0004044164670631289</v>
       </c>
       <c r="W17" t="n">
-        <v>8.666299981996417e-05</v>
+        <v>0.0007015583105385303</v>
       </c>
       <c r="X17" t="n">
-        <v>0.0003636162145994604</v>
+        <v>0.000141356562380679</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.049239113461226e-05</v>
+        <v>9.002524166135117e-05</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.942826439626515e-05</v>
+        <v>0.0006655477918684483</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.000167667109053582</v>
+        <v>0.0001770443341229111</v>
       </c>
       <c r="AB17" t="n">
-        <v>4.034456651424989e-05</v>
+        <v>0.0002044109569396824</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.0001047832192853093</v>
+        <v>9.011200745590031e-06</v>
       </c>
       <c r="AD17" t="n">
-        <v>2.572782614151947e-05</v>
+        <v>0.0001038252958096564</v>
       </c>
       <c r="AE17" t="n">
-        <v>4.523561074165627e-05</v>
+        <v>5.316311217029579e-05</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.0004775877168867737</v>
+        <v>0.0002557969419285655</v>
       </c>
       <c r="AG17" t="n">
-        <v>3.564837243175134e-05</v>
+        <v>6.943587504792958e-05</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.0002591052616480738</v>
+        <v>5.297542520565912e-05</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.0001136042628786527</v>
+        <v>0.0001972133904928342</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2.466218757035676e-05</v>
+        <v>0.000339683931088075</v>
       </c>
       <c r="AK17" t="n">
-        <v>9.128660167334601e-06</v>
+        <v>0.0006539238383993506</v>
       </c>
       <c r="AL17" t="n">
-        <v>8.320028427988291e-05</v>
+        <v>0.0004238486289978027</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.0001625655859243125</v>
+        <v>0.0001188211317639798</v>
       </c>
       <c r="AN17" t="n">
-        <v>1.983362562896218e-05</v>
+        <v>2.100615165545605e-05</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.0002182119205826893</v>
+        <v>0.0004385246429592371</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.0001331873354502022</v>
+        <v>0.000375264004105702</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.149930722021963e-05</v>
+        <v>3.067332727368921e-06</v>
       </c>
       <c r="AR17" t="n">
-        <v>4.650663322536275e-05</v>
+        <v>0.0001436168095096946</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.0001194404685520567</v>
+        <v>6.912053504493088e-05</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.384771116543561e-05</v>
+        <v>3.355700391693972e-05</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.222302909009159e-05</v>
+        <v>0.002568322466686368</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.0002377943019382656</v>
+        <v>0.0003314708592370152</v>
       </c>
       <c r="AW17" t="n">
-        <v>2.886992660933174e-05</v>
+        <v>0.0002425499260425568</v>
       </c>
       <c r="AX17" t="n">
-        <v>4.139648808632046e-06</v>
+        <v>0.0008904673741199076</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.0007951721199788153</v>
+        <v>0.0003942878101952374</v>
       </c>
       <c r="AZ17" t="n">
-        <v>2.123869307979476e-05</v>
+        <v>0.0002780619543045759</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.0002075573138426989</v>
+        <v>0.0001000538759399205</v>
       </c>
       <c r="BB17" t="n">
-        <v>9.205131209455431e-05</v>
+        <v>4.740870645036921e-05</v>
       </c>
       <c r="BC17" t="n">
-        <v>3.376776658114977e-05</v>
+        <v>0.0004744438629131764</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.0001967456191778183</v>
+        <v>0.000923574436455965</v>
       </c>
       <c r="BE17" t="n">
-        <v>0.0001641907874727622</v>
+        <v>0.0005980835994705558</v>
       </c>
       <c r="BF17" t="n">
-        <v>0.0002048626192845404</v>
+        <v>0.0001395020808558911</v>
       </c>
       <c r="BG17" t="n">
-        <v>3.870750515488908e-05</v>
+        <v>0.0006391920032911003</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.0001098767388612032</v>
+        <v>0.0003957330191042274</v>
       </c>
       <c r="BI17" t="n">
-        <v>7.882544014137238e-05</v>
+        <v>0.0003678200591821223</v>
       </c>
       <c r="BJ17" t="n">
-        <v>0.0004076106706634164</v>
+        <v>0.0002154509274987504</v>
       </c>
       <c r="BK17" t="n">
-        <v>8.395230543101206e-05</v>
+        <v>0.0001134665144491009</v>
       </c>
       <c r="BL17" t="n">
-        <v>4.946376793668605e-05</v>
+        <v>0.0003355027001816779</v>
       </c>
       <c r="BM17" t="n">
-        <v>5.109590711072087e-05</v>
+        <v>0.0007074463064782321</v>
       </c>
       <c r="BN17" t="n">
-        <v>0.0001189640242955647</v>
+        <v>0.0003579319745767862</v>
       </c>
       <c r="BO17" t="n">
-        <v>0.0001156202197307721</v>
+        <v>0.0001654216030146927</v>
       </c>
       <c r="BP17" t="n">
-        <v>0.0001415091537637636</v>
+        <v>0.0004059695638716221</v>
       </c>
       <c r="BQ17" t="n">
-        <v>8.597192936576903e-05</v>
+        <v>0.0002020283136516809</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.0001093989994842559</v>
+        <v>4.065080429427326e-05</v>
       </c>
       <c r="BS17" t="n">
-        <v>1.427491224603727e-05</v>
+        <v>0.0001159036037279293</v>
       </c>
       <c r="BT17" t="n">
-        <v>5.777874321211129e-05</v>
+        <v>0.0001726977934595197</v>
       </c>
       <c r="BU17" t="n">
-        <v>9.949789091479033e-05</v>
+        <v>5.891526234336197e-05</v>
       </c>
       <c r="BV17" t="n">
-        <v>0.0001008212275337428</v>
+        <v>0.001568268868140876</v>
       </c>
       <c r="BW17" t="n">
-        <v>9.291885362472385e-06</v>
+        <v>0.0002494979707989842</v>
       </c>
       <c r="BX17" t="n">
-        <v>4.430484113981947e-05</v>
+        <v>0.0001440394553355873</v>
       </c>
       <c r="BY17" t="n">
-        <v>3.208306588931009e-05</v>
+        <v>0.0004767325590364635</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.000470878672786057</v>
+        <v>0.0001882490905700251</v>
       </c>
       <c r="CA17" t="n">
-        <v>6.86546482029371e-05</v>
+        <v>0.0001822855265345424</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.0002036844816757366</v>
+        <v>0.000142455828608945</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.0001189696413348429</v>
+        <v>0.0001074076644727029</v>
       </c>
       <c r="CD17" t="n">
-        <v>3.611331339925528e-05</v>
+        <v>0.0001107070711441338</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.0001441761269234121</v>
+        <v>0.000606117770075798</v>
       </c>
       <c r="CF17" t="n">
-        <v>8.628860814496875e-05</v>
+        <v>0.0001425347290933132</v>
       </c>
       <c r="CG17" t="n">
-        <v>9.994262654799968e-05</v>
+        <v>0.0001071679871529341</v>
       </c>
       <c r="CH17" t="n">
-        <v>3.22529231198132e-05</v>
+        <v>3.936531720682979e-05</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.0002400657249381766</v>
+        <v>1.257724306924501e-05</v>
       </c>
       <c r="CJ17" t="n">
-        <v>3.039761941181496e-05</v>
+        <v>0.0001754867262206972</v>
       </c>
       <c r="CK17" t="n">
-        <v>9.094520646613091e-05</v>
+        <v>9.86686791293323e-05</v>
       </c>
       <c r="CL17" t="n">
-        <v>5.785291432403028e-05</v>
+        <v>1.778869409463368e-05</v>
       </c>
       <c r="CM17" t="n">
-        <v>8.638869621790946e-05</v>
+        <v>0.0008421585662290454</v>
       </c>
       <c r="CN17" t="n">
-        <v>5.572362715611234e-05</v>
+        <v>0.0005413807230070233</v>
       </c>
       <c r="CO17" t="n">
-        <v>0.0001143876434070989</v>
+        <v>0.0002414977498119697</v>
       </c>
       <c r="CP17" t="n">
-        <v>4.921194340568036e-05</v>
+        <v>0.0001831045374274254</v>
       </c>
       <c r="CQ17" t="n">
-        <v>0.0002578896819613874</v>
+        <v>0.0004864432848989964</v>
       </c>
       <c r="CR17" t="n">
-        <v>0.0001566486316733062</v>
+        <v>0.0003917122085113078</v>
       </c>
       <c r="CS17" t="n">
-        <v>0.0001157291408162564</v>
+        <v>0.0006204526289366186</v>
       </c>
       <c r="CT17" t="n">
-        <v>3.985553485108539e-05</v>
+        <v>0.0004868296382483095</v>
       </c>
       <c r="CU17" t="n">
-        <v>8.93424148671329e-05</v>
+        <v>0.0001204040090669878</v>
       </c>
       <c r="CV17" t="n">
-        <v>6.773291534045711e-05</v>
+        <v>9.1767986305058e-05</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.0001658991968724877</v>
+        <v>0.0004913857555948198</v>
       </c>
       <c r="CX17" t="n">
-        <v>9.738161315908656e-05</v>
+        <v>0.0002396461204625666</v>
       </c>
       <c r="CY17" t="n">
-        <v>7.689165067858994e-05</v>
+        <v>0.0002956481475848705</v>
       </c>
       <c r="CZ17" t="n">
-        <v>2.205814598710276e-05</v>
+        <v>7.333753455895931e-05</v>
       </c>
       <c r="DA17" t="n">
-        <v>0.0002345930406590924</v>
+        <v>3.680675581563264e-05</v>
       </c>
       <c r="DB17" t="n">
-        <v>1.736403828545008e-05</v>
+        <v>0.0001426751259714365</v>
       </c>
       <c r="DC17" t="n">
-        <v>0.000167249032529071</v>
+        <v>0.0001769336085999385</v>
       </c>
       <c r="DD17" t="n">
-        <v>5.277877426124178e-05</v>
+        <v>2.290769771207124e-05</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.0002966732135973871</v>
+        <v>0.0003477345744613558</v>
       </c>
       <c r="DF17" t="n">
-        <v>2.723498982959427e-05</v>
+        <v>0.0006204997189342976</v>
       </c>
       <c r="DG17" t="n">
-        <v>7.930432184366509e-05</v>
+        <v>1.276839611819014e-05</v>
       </c>
       <c r="DH17" t="n">
-        <v>0.0001072006125468761</v>
+        <v>0.001365111558698118</v>
       </c>
       <c r="DI17" t="n">
-        <v>0.0001430386037100106</v>
+        <v>0.000622734718490392</v>
       </c>
       <c r="DJ17" t="n">
-        <v>0.0001688441552687436</v>
+        <v>0.0002375525946263224</v>
       </c>
       <c r="DK17" t="n">
-        <v>0.0002032044139923528</v>
+        <v>0.000241104542510584</v>
       </c>
       <c r="DL17" t="n">
-        <v>2.346131805097684e-05</v>
+        <v>9.795719961402938e-05</v>
       </c>
       <c r="DM17" t="n">
-        <v>0.0002306786336703226</v>
+        <v>0.0001864591467892751</v>
       </c>
       <c r="DN17" t="n">
-        <v>0.000146730657434091</v>
+        <v>5.405749834608287e-05</v>
       </c>
       <c r="DO17" t="n">
-        <v>0.0001055238681146875</v>
+        <v>6.303676491370425e-05</v>
       </c>
       <c r="DP17" t="n">
-        <v>3.304243000457063e-05</v>
+        <v>0.000366669031791389</v>
       </c>
       <c r="DQ17" t="n">
-        <v>0.0001314473338425159</v>
+        <v>0.0002672391710802913</v>
       </c>
       <c r="DR17" t="n">
-        <v>0.0001162730186479166</v>
+        <v>0.0002440823154756799</v>
       </c>
       <c r="DS17" t="n">
-        <v>0.0001404174254275858</v>
+        <v>0.0002537761174608022</v>
       </c>
       <c r="DT17" t="n">
-        <v>4.483011798583902e-05</v>
+        <v>4.942637679050677e-05</v>
       </c>
       <c r="DU17" t="n">
-        <v>1.093177525035571e-05</v>
+        <v>3.059209848288447e-05</v>
       </c>
       <c r="DV17" t="n">
-        <v>5.581034201895818e-05</v>
+        <v>3.024833495146595e-05</v>
       </c>
       <c r="DW17" t="n">
-        <v>4.005665687145665e-05</v>
+        <v>3.93405971408356e-05</v>
       </c>
       <c r="DX17" t="n">
-        <v>3.764433859032579e-05</v>
+        <v>0.0004156583163421601</v>
       </c>
       <c r="DY17" t="n">
-        <v>4.36098052887246e-05</v>
+        <v>0.0002078880788758397</v>
       </c>
       <c r="DZ17" t="n">
-        <v>7.10843742126599e-05</v>
+        <v>6.727030267938972e-06</v>
       </c>
       <c r="EA17" t="n">
-        <v>7.808813825249672e-05</v>
+        <v>0.0003609322884585708</v>
       </c>
       <c r="EB17" t="n">
-        <v>1.039303060679231e-05</v>
+        <v>4.631440242519602e-05</v>
       </c>
       <c r="EC17" t="n">
-        <v>7.205571455415338e-05</v>
+        <v>0.0001002766075544059</v>
       </c>
       <c r="ED17" t="n">
-        <v>2.323059925402049e-05</v>
+        <v>3.576544258976355e-05</v>
       </c>
       <c r="EE17" t="n">
-        <v>5.227921064943075e-06</v>
+        <v>2.640197271830402e-05</v>
       </c>
       <c r="EF17" t="n">
-        <v>0.0001050520077114925</v>
+        <v>0.0003832211659755558</v>
       </c>
       <c r="EG17" t="n">
-        <v>0.0001816615258576348</v>
+        <v>0.0006472521345131099</v>
       </c>
       <c r="EH17" t="n">
-        <v>7.674143853364512e-05</v>
+        <v>3.540120451361872e-05</v>
       </c>
       <c r="EI17" t="n">
-        <v>0.0001184389911941253</v>
+        <v>1.282730227103457e-05</v>
       </c>
       <c r="EJ17" t="n">
-        <v>0.0002232348779216409</v>
+        <v>4.619421088136733e-05</v>
       </c>
       <c r="EK17" t="n">
-        <v>0.0001266845210921019</v>
+        <v>2.159756695618853e-05</v>
       </c>
       <c r="EL17" t="n">
-        <v>2.620510713313706e-05</v>
+        <v>0.0001016468595480546</v>
       </c>
       <c r="EM17" t="n">
-        <v>0.0001655668893363327</v>
+        <v>0.0001358881127089262</v>
       </c>
       <c r="EN17" t="n">
-        <v>4.543782415566966e-05</v>
+        <v>3.283403202658519e-05</v>
       </c>
       <c r="EO17" t="n">
-        <v>6.330951873678714e-05</v>
+        <v>9.330290777143091e-05</v>
       </c>
       <c r="EP17" t="n">
-        <v>3.67708271369338e-05</v>
+        <v>5.421113746706396e-05</v>
       </c>
       <c r="EQ17" t="n">
-        <v>0.0001154946294263937</v>
+        <v>0.0004607366281561553</v>
       </c>
       <c r="ER17" t="n">
-        <v>8.861149399308488e-05</v>
+        <v>0.0003623258089646697</v>
       </c>
       <c r="ES17" t="n">
-        <v>0.0001433230354450643</v>
+        <v>2.883210800064262e-05</v>
       </c>
       <c r="ET17" t="n">
-        <v>0.0001224147126777098</v>
+        <v>0.000149862389662303</v>
       </c>
       <c r="EU17" t="n">
-        <v>3.304990605101921e-05</v>
+        <v>0.0002211350365541875</v>
       </c>
       <c r="EV17" t="n">
-        <v>8.518377580912784e-05</v>
+        <v>0.0004465146630536765</v>
       </c>
       <c r="EW17" t="n">
-        <v>5.611465167021379e-05</v>
+        <v>0.0003069215454161167</v>
       </c>
       <c r="EX17" t="n">
-        <v>5.978214176138863e-05</v>
+        <v>6.902911991346627e-05</v>
       </c>
       <c r="EY17" t="n">
-        <v>0.0001505242544226348</v>
+        <v>0.0005298923351801932</v>
       </c>
       <c r="EZ17" t="n">
-        <v>8.777221955824643e-05</v>
+        <v>0.0001857876632129773</v>
       </c>
       <c r="FA17" t="n">
-        <v>9.711442544357851e-05</v>
+        <v>5.650417369906791e-05</v>
       </c>
       <c r="FB17" t="n">
-        <v>2.114321250701323e-05</v>
+        <v>1.515471922175493e-06</v>
       </c>
       <c r="FC17" t="n">
-        <v>0.0002418122749077156</v>
+        <v>8.809546125121415e-05</v>
       </c>
       <c r="FD17" t="n">
-        <v>1.177504054794554e-05</v>
+        <v>0.0002072813222184777</v>
       </c>
       <c r="FE17" t="n">
-        <v>0.0001606292353244498</v>
+        <v>8.43853922560811e-05</v>
       </c>
       <c r="FF17" t="n">
-        <v>2.807701093843207e-05</v>
+        <v>4.25798752985429e-05</v>
       </c>
       <c r="FG17" t="n">
-        <v>3.238687713746913e-05</v>
+        <v>0.0001139033847721294</v>
       </c>
       <c r="FH17" t="n">
-        <v>0.0001796723809093237</v>
+        <v>2.313108052476309e-05</v>
       </c>
       <c r="FI17" t="n">
-        <v>2.835880877682939e-05</v>
+        <v>0.0003852691152133048</v>
       </c>
       <c r="FJ17" t="n">
-        <v>0.0001300534640904516</v>
+        <v>0.000282667635474354</v>
       </c>
       <c r="FK17" t="n">
-        <v>3.905388439306989e-06</v>
+        <v>0.0003843445447273552</v>
       </c>
       <c r="FL17" t="n">
-        <v>0.0001576952054165304</v>
+        <v>0.0001782843755790964</v>
       </c>
       <c r="FM17" t="n">
-        <v>1.266735489480197e-05</v>
+        <v>9.614053124096245e-05</v>
       </c>
       <c r="FN17" t="n">
-        <v>0.0001118734508054331</v>
+        <v>0.0001063381205312908</v>
       </c>
       <c r="FO17" t="n">
-        <v>0.0001858627219917253</v>
+        <v>0.0002776558394543827</v>
       </c>
       <c r="FP17" t="n">
-        <v>7.943810487631708e-05</v>
+        <v>0.0003997875028289855</v>
       </c>
       <c r="FQ17" t="n">
-        <v>3.374001244083047e-05</v>
+        <v>0.0005327918916009367</v>
       </c>
       <c r="FR17" t="n">
-        <v>3.14166936732363e-05</v>
+        <v>0.0004517521883826703</v>
       </c>
       <c r="FS17" t="n">
-        <v>0.0003309244639240205</v>
+        <v>0.0001747551141306758</v>
       </c>
       <c r="FT17" t="n">
-        <v>0.0001145273636211641</v>
+        <v>8.574272214900702e-06</v>
       </c>
       <c r="FU17" t="n">
-        <v>0.0005392748862504959</v>
+        <v>0.0001349357335129753</v>
       </c>
       <c r="FV17" t="n">
-        <v>6.957766890991479e-05</v>
+        <v>9.410592610947788e-06</v>
       </c>
       <c r="FW17" t="n">
-        <v>0.000149650833918713</v>
+        <v>0.0001590175379533321</v>
       </c>
       <c r="FX17" t="n">
-        <v>0.0001491102448198944</v>
+        <v>0.0001024590310407802</v>
       </c>
       <c r="FY17" t="n">
-        <v>3.489705704851076e-05</v>
+        <v>0.0005127167096361518</v>
       </c>
       <c r="FZ17" t="n">
-        <v>1.879172123153694e-05</v>
+        <v>0.0001963107060873881</v>
       </c>
       <c r="GA17" t="n">
-        <v>4.239549525664188e-05</v>
+        <v>0.0001022866053972393</v>
       </c>
       <c r="GB17" t="n">
-        <v>8.210948726627976e-05</v>
+        <v>0.0001255335082532838</v>
       </c>
       <c r="GC17" t="n">
-        <v>1.138959305535536e-05</v>
+        <v>0.0002646413340698928</v>
       </c>
       <c r="GD17" t="n">
-        <v>0.0001351535029243678</v>
+        <v>0.0006028456846252084</v>
       </c>
       <c r="GE17" t="n">
-        <v>0.0001921347284223884</v>
+        <v>0.000551949255168438</v>
       </c>
       <c r="GF17" t="n">
-        <v>0.0001368945522699505</v>
+        <v>0.0002710141707211733</v>
       </c>
       <c r="GG17" t="n">
-        <v>6.34138414170593e-05</v>
+        <v>0.0002056869125226513</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.001881310250610113</v>
+        <v>5.408277502283454e-05</v>
       </c>
       <c r="B18" t="n">
-        <v>0.005764373112469912</v>
+        <v>0.001144577981904149</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001091284211724997</v>
+        <v>9.008905180962756e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>0.002042618347331882</v>
+        <v>0.0006947661750018597</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001709177740849555</v>
+        <v>5.069307735539041e-05</v>
       </c>
       <c r="F18" t="n">
-        <v>0.007805327884852886</v>
+        <v>4.394125426188111e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>0.002010959200561047</v>
+        <v>0.0001045923636411317</v>
       </c>
       <c r="H18" t="n">
-        <v>0.002172230742871761</v>
+        <v>6.168438994791359e-05</v>
       </c>
       <c r="I18" t="n">
-        <v>0.002283256035298109</v>
+        <v>9.638263145461679e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001236485317349434</v>
+        <v>6.067461072234437e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.005162942688912153</v>
+        <v>0.0009694110485725105</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0006080639432184398</v>
+        <v>8.279030225821771e-06</v>
       </c>
       <c r="M18" t="n">
-        <v>0.001076669082976878</v>
+        <v>0.000673311878927052</v>
       </c>
       <c r="N18" t="n">
-        <v>0.001052988111041486</v>
+        <v>0.0001623217685846612</v>
       </c>
       <c r="O18" t="n">
-        <v>0.006571461446583271</v>
+        <v>0.0001244851591764018</v>
       </c>
       <c r="P18" t="n">
-        <v>0.000247761607170105</v>
+        <v>6.872281664982438e-05</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.000418724084738642</v>
+        <v>0.0001188285095850006</v>
       </c>
       <c r="R18" t="n">
-        <v>0.003090792335569859</v>
+        <v>3.286716673756018e-05</v>
       </c>
       <c r="S18" t="n">
-        <v>0.001234360737726092</v>
+        <v>9.661237709224224e-05</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0004456087481230497</v>
+        <v>0.0001157778679043986</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0001235897652804852</v>
+        <v>4.814170461031608e-05</v>
       </c>
       <c r="V18" t="n">
-        <v>0.001707360032014549</v>
+        <v>6.986539665376768e-05</v>
       </c>
       <c r="W18" t="n">
-        <v>0.002248271368443966</v>
+        <v>5.002252510166727e-05</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0008964035077951849</v>
+        <v>6.906525959493592e-05</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.0001513314200565219</v>
+        <v>9.224587120115757e-05</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.00185732077807188</v>
+        <v>0.0001025473902700469</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.0005962135037407279</v>
+        <v>7.509566785302013e-05</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.001426220173016191</v>
+        <v>0.0001440609194105491</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.0008460043463855982</v>
+        <v>0.0002688619133550674</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.0004131881578359753</v>
+        <v>2.776504152279813e-05</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.000870311981998384</v>
+        <v>5.474582212627865e-05</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.001331738429144025</v>
+        <v>7.280113641172647e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.0006986728985793889</v>
+        <v>1.778182195266709e-06</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.0007345336489379406</v>
+        <v>6.581076740985736e-05</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.0008066408918239176</v>
+        <v>3.272869889769936e-06</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.0006463497993536294</v>
+        <v>1.876088936114684e-05</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.0001465559907956049</v>
+        <v>1.004842488327995e-06</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.0003705464187078178</v>
+        <v>0.0001026326499413699</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.0004275437095202506</v>
+        <v>3.369584737811238e-05</v>
       </c>
       <c r="AN18" t="n">
-        <v>8.185300976037979e-05</v>
+        <v>1.904312375700101e-05</v>
       </c>
       <c r="AO18" t="n">
-        <v>9.922914614435285e-05</v>
+        <v>9.567470988258719e-05</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.001367417513392866</v>
+        <v>7.688267214689404e-05</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.0001931522565428168</v>
+        <v>9.107147343456745e-05</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.0006183767109178007</v>
+        <v>3.750701216631569e-05</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.000276022037724033</v>
+        <v>1.97563276742585e-05</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.001135560218244791</v>
+        <v>0.0001280878495890647</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.002451410284265876</v>
+        <v>0.0007529962458647788</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.0008057721424847841</v>
+        <v>0.000147232145536691</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.0003168068360537291</v>
+        <v>0.0002528811746742576</v>
       </c>
       <c r="AX18" t="n">
-        <v>5.836220225319266e-05</v>
+        <v>8.092340067378245e-06</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.004369826056063175</v>
+        <v>9.307084110332653e-05</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.0002379629586357623</v>
+        <v>3.540968464221805e-06</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.0001536149065941572</v>
+        <v>2.049924660241231e-05</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.0007573442999273539</v>
+        <v>4.778729362442391e-06</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.0007015562150627375</v>
+        <v>7.900441414676607e-05</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.001199051621370018</v>
+        <v>0.0001844162325141951</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.0001148135852417909</v>
+        <v>0.0002372921298956499</v>
       </c>
       <c r="BF18" t="n">
-        <v>0.002214044565334916</v>
+        <v>0.0001060095382854342</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.0007271624635905027</v>
+        <v>9.390039485879242e-05</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.001373626524582505</v>
+        <v>0.0001248042972292751</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.0005321689532138407</v>
+        <v>0.0001006188394967467</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.002032668795436621</v>
+        <v>9.555040014674887e-05</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.000174733140738681</v>
+        <v>3.926192948711105e-05</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.0008156103431247175</v>
+        <v>0.0001037265319610015</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.0004722039157059044</v>
+        <v>7.688572077313438e-05</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.0001829479006119072</v>
+        <v>0.0001340703893220052</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.001164243556559086</v>
+        <v>2.504306939954404e-05</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.0005601480370387435</v>
+        <v>0.0001828768581617624</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0.0002728404360823333</v>
+        <v>3.355937951710075e-05</v>
       </c>
       <c r="BR18" t="n">
-        <v>0.0006848869379609823</v>
+        <v>7.222055864986032e-05</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.001008696854114532</v>
+        <v>3.513916453812271e-05</v>
       </c>
       <c r="BT18" t="n">
-        <v>0.0005479014362208545</v>
+        <v>6.354720244416967e-05</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.0006397956749424338</v>
+        <v>9.321197285316885e-05</v>
       </c>
       <c r="BV18" t="n">
-        <v>0.001457688398659229</v>
+        <v>0.0003723172703757882</v>
       </c>
       <c r="BW18" t="n">
-        <v>0.0003158204490318894</v>
+        <v>7.58103487896733e-05</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.0002429021260468289</v>
+        <v>0.0001467454567318782</v>
       </c>
       <c r="BY18" t="n">
-        <v>0.0004850084078498185</v>
+        <v>9.746939031174406e-05</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0.002057038014754653</v>
+        <v>8.03125585662201e-05</v>
       </c>
       <c r="CA18" t="n">
-        <v>1.435569720342755e-05</v>
+        <v>3.184370507369749e-05</v>
       </c>
       <c r="CB18" t="n">
-        <v>6.88698492012918e-07</v>
+        <v>2.852493344107643e-05</v>
       </c>
       <c r="CC18" t="n">
-        <v>0.001557396957650781</v>
+        <v>4.956523116561584e-05</v>
       </c>
       <c r="CD18" t="n">
-        <v>0.0004714545793831348</v>
+        <v>1.779551348590758e-05</v>
       </c>
       <c r="CE18" t="n">
-        <v>0.001012358698062599</v>
+        <v>0.0002104489394696429</v>
       </c>
       <c r="CF18" t="n">
-        <v>9.961763680621516e-06</v>
+        <v>4.779360097018071e-05</v>
       </c>
       <c r="CG18" t="n">
-        <v>0.000415226852055639</v>
+        <v>8.778316987445578e-05</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.0003951980907004327</v>
+        <v>5.037145820097066e-05</v>
       </c>
       <c r="CI18" t="n">
-        <v>0.001123584690503776</v>
+        <v>2.628284164529759e-06</v>
       </c>
       <c r="CJ18" t="n">
-        <v>0.0001302728924201801</v>
+        <v>2.758344453468453e-05</v>
       </c>
       <c r="CK18" t="n">
-        <v>4.053823067806661e-05</v>
+        <v>1.210764730785741e-05</v>
       </c>
       <c r="CL18" t="n">
-        <v>0.00037677216459997</v>
+        <v>1.865256490418687e-05</v>
       </c>
       <c r="CM18" t="n">
-        <v>0.000419809075538069</v>
+        <v>0.0002451503823976964</v>
       </c>
       <c r="CN18" t="n">
-        <v>4.733148671220988e-05</v>
+        <v>0.0001330024970229715</v>
       </c>
       <c r="CO18" t="n">
-        <v>0.0001656219101278111</v>
+        <v>2.543839218560606e-05</v>
       </c>
       <c r="CP18" t="n">
-        <v>0.0007547917193733156</v>
+        <v>0.0001797659060684964</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.001964956056326628</v>
+        <v>0.0001986244751606137</v>
       </c>
       <c r="CR18" t="n">
-        <v>0.001342242350801826</v>
+        <v>8.762424840824679e-05</v>
       </c>
       <c r="CS18" t="n">
-        <v>0.0007911002612672746</v>
+        <v>0.0001025521123665385</v>
       </c>
       <c r="CT18" t="n">
-        <v>0.0001664091541897506</v>
+        <v>0.0001970319863175973</v>
       </c>
       <c r="CU18" t="n">
-        <v>0.0004964896361343563</v>
+        <v>6.278410182858352e-06</v>
       </c>
       <c r="CV18" t="n">
-        <v>0.0004884057561866939</v>
+        <v>7.947517588036135e-06</v>
       </c>
       <c r="CW18" t="n">
-        <v>0.00120593945030123</v>
+        <v>0.0002094082883559167</v>
       </c>
       <c r="CX18" t="n">
-        <v>3.365368684171699e-05</v>
+        <v>8.124487794702873e-05</v>
       </c>
       <c r="CY18" t="n">
-        <v>5.714632425224409e-05</v>
+        <v>0.0001181604893645272</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.0002018674567807466</v>
+        <v>5.459087697090581e-05</v>
       </c>
       <c r="DA18" t="n">
-        <v>0.001256784424185753</v>
+        <v>2.426704122626688e-05</v>
       </c>
       <c r="DB18" t="n">
-        <v>0.0001186789304483682</v>
+        <v>3.048015605600085e-05</v>
       </c>
       <c r="DC18" t="n">
-        <v>0.0003201001090928912</v>
+        <v>2.07816392503446e-05</v>
       </c>
       <c r="DD18" t="n">
-        <v>0.0005018428200855851</v>
+        <v>5.655311724694911e-06</v>
       </c>
       <c r="DE18" t="n">
-        <v>0.0001580441457917914</v>
+        <v>0.0001391454425174743</v>
       </c>
       <c r="DF18" t="n">
-        <v>0.0009143400238826871</v>
+        <v>4.260542482370511e-05</v>
       </c>
       <c r="DG18" t="n">
-        <v>0.0005301526980474591</v>
+        <v>4.133553011342883e-05</v>
       </c>
       <c r="DH18" t="n">
-        <v>0.0005205935449339449</v>
+        <v>0.000213533901842311</v>
       </c>
       <c r="DI18" t="n">
-        <v>0.001301264623180032</v>
+        <v>5.458637315314263e-05</v>
       </c>
       <c r="DJ18" t="n">
-        <v>0.0008806322002783418</v>
+        <v>9.841154678724706e-06</v>
       </c>
       <c r="DK18" t="n">
-        <v>0.001505327178165317</v>
+        <v>3.336417648824863e-06</v>
       </c>
       <c r="DL18" t="n">
-        <v>0.0005171505617909133</v>
+        <v>7.405684300465509e-05</v>
       </c>
       <c r="DM18" t="n">
-        <v>0.001325589837506413</v>
+        <v>5.503986903931946e-05</v>
       </c>
       <c r="DN18" t="n">
-        <v>0.001193431671708822</v>
+        <v>3.288207881269045e-05</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.0003854393144138157</v>
+        <v>5.450794560601935e-05</v>
       </c>
       <c r="DP18" t="n">
-        <v>0.0003124010981991887</v>
+        <v>8.370215073227882e-05</v>
       </c>
       <c r="DQ18" t="n">
-        <v>0.0005098520778119564</v>
+        <v>4.914311648462899e-05</v>
       </c>
       <c r="DR18" t="n">
-        <v>0.0001146239519584924</v>
+        <v>0.0001187483430840075</v>
       </c>
       <c r="DS18" t="n">
-        <v>0.000148590377648361</v>
+        <v>1.548311593069229e-05</v>
       </c>
       <c r="DT18" t="n">
-        <v>0.000188914462341927</v>
+        <v>3.700768138514832e-05</v>
       </c>
       <c r="DU18" t="n">
-        <v>0.0007621969562023878</v>
+        <v>3.931271567125805e-05</v>
       </c>
       <c r="DV18" t="n">
-        <v>0.0009978229645639658</v>
+        <v>5.714667349820957e-05</v>
       </c>
       <c r="DW18" t="n">
-        <v>4.653030191548169e-05</v>
+        <v>5.510651317308657e-05</v>
       </c>
       <c r="DX18" t="n">
-        <v>0.0001305711339227855</v>
+        <v>0.0001728328206809238</v>
       </c>
       <c r="DY18" t="n">
-        <v>0.000104280305095017</v>
+        <v>4.485156750888564e-06</v>
       </c>
       <c r="DZ18" t="n">
-        <v>0.0004856747691519558</v>
+        <v>7.930225547170267e-05</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.0006075989222154021</v>
+        <v>8.215229900088161e-05</v>
       </c>
       <c r="EB18" t="n">
-        <v>0.0002454272762406617</v>
+        <v>4.11438086302951e-05</v>
       </c>
       <c r="EC18" t="n">
-        <v>0.0004254156665410846</v>
+        <v>5.013807458453812e-05</v>
       </c>
       <c r="ED18" t="n">
-        <v>0.0006152910646051168</v>
+        <v>3.238062345189974e-05</v>
       </c>
       <c r="EE18" t="n">
-        <v>0.000728985236492008</v>
+        <v>1.787780274753459e-05</v>
       </c>
       <c r="EF18" t="n">
-        <v>0.0002762161893770099</v>
+        <v>1.017374597722664e-05</v>
       </c>
       <c r="EG18" t="n">
-        <v>0.0008947849273681641</v>
+        <v>0.0001916957553476095</v>
       </c>
       <c r="EH18" t="n">
-        <v>0.0008997456752695143</v>
+        <v>8.545852324459702e-05</v>
       </c>
       <c r="EI18" t="n">
-        <v>0.0001177044614451006</v>
+        <v>0.0001491655712015927</v>
       </c>
       <c r="EJ18" t="n">
-        <v>0.001664655283093452</v>
+        <v>0.0001380762550979853</v>
       </c>
       <c r="EK18" t="n">
-        <v>0.001104998169466853</v>
+        <v>4.005398295703344e-06</v>
       </c>
       <c r="EL18" t="n">
-        <v>0.0003334880457259715</v>
+        <v>2.095560557791032e-05</v>
       </c>
       <c r="EM18" t="n">
-        <v>0.000225446157855913</v>
+        <v>3.199244747520424e-05</v>
       </c>
       <c r="EN18" t="n">
-        <v>0.0007461797213181853</v>
+        <v>1.641512972128112e-05</v>
       </c>
       <c r="EO18" t="n">
-        <v>0.0002366563712712377</v>
+        <v>7.316655683098361e-06</v>
       </c>
       <c r="EP18" t="n">
-        <v>0.0003641368239186704</v>
+        <v>0.0002431073226034641</v>
       </c>
       <c r="EQ18" t="n">
-        <v>0.0005714049329981208</v>
+        <v>8.969190093921497e-05</v>
       </c>
       <c r="ER18" t="n">
-        <v>0.0005164988106116652</v>
+        <v>5.141478322912008e-05</v>
       </c>
       <c r="ES18" t="n">
-        <v>0.0005592009983956814</v>
+        <v>3.195879253325984e-05</v>
       </c>
       <c r="ET18" t="n">
-        <v>6.187151302583516e-05</v>
+        <v>1.931770020746626e-05</v>
       </c>
       <c r="EU18" t="n">
-        <v>0.0005981642752885818</v>
+        <v>6.526082142954692e-05</v>
       </c>
       <c r="EV18" t="n">
-        <v>0.0001280554279219359</v>
+        <v>1.792196417227387e-05</v>
       </c>
       <c r="EW18" t="n">
-        <v>0.0001598654489498585</v>
+        <v>4.453399014892057e-05</v>
       </c>
       <c r="EX18" t="n">
-        <v>0.0005856747156940401</v>
+        <v>3.679354631458409e-05</v>
       </c>
       <c r="EY18" t="n">
-        <v>0.001109882141463459</v>
+        <v>0.0002170478401239961</v>
       </c>
       <c r="EZ18" t="n">
-        <v>0.0002839486696757376</v>
+        <v>4.544567127595656e-05</v>
       </c>
       <c r="FA18" t="n">
-        <v>3.730441676452756e-05</v>
+        <v>9.703264367999509e-05</v>
       </c>
       <c r="FB18" t="n">
-        <v>0.000365018961019814</v>
+        <v>3.322424890939146e-05</v>
       </c>
       <c r="FC18" t="n">
-        <v>0.001249924418516457</v>
+        <v>2.489359576429706e-05</v>
       </c>
       <c r="FD18" t="n">
-        <v>0.000107881503936369</v>
+        <v>2.113794835167937e-05</v>
       </c>
       <c r="FE18" t="n">
-        <v>0.0001905879908008501</v>
+        <v>1.768958100001328e-06</v>
       </c>
       <c r="FF18" t="n">
-        <v>0.0004478520713746548</v>
+        <v>1.292607157665771e-05</v>
       </c>
       <c r="FG18" t="n">
-        <v>0.00100916693918407</v>
+        <v>3.751036638277583e-05</v>
       </c>
       <c r="FH18" t="n">
-        <v>0.001757539226673543</v>
+        <v>0.000140382515382953</v>
       </c>
       <c r="FI18" t="n">
-        <v>0.001194528304040432</v>
+        <v>7.408091187244281e-05</v>
       </c>
       <c r="FJ18" t="n">
-        <v>0.0001831171684898436</v>
+        <v>5.688206510967575e-05</v>
       </c>
       <c r="FK18" t="n">
-        <v>0.0002050370967481285</v>
+        <v>0.0001003846264211461</v>
       </c>
       <c r="FL18" t="n">
-        <v>0.001486779539845884</v>
+        <v>4.422290294314735e-05</v>
       </c>
       <c r="FM18" t="n">
-        <v>0.0002781288349069655</v>
+        <v>6.233585008885711e-05</v>
       </c>
       <c r="FN18" t="n">
-        <v>0.00044930589501746</v>
+        <v>5.101818169350736e-05</v>
       </c>
       <c r="FO18" t="n">
-        <v>0.0001482602092437446</v>
+        <v>1.310609877691604e-05</v>
       </c>
       <c r="FP18" t="n">
-        <v>0.0002185441262554377</v>
+        <v>0.0001237559772562236</v>
       </c>
       <c r="FQ18" t="n">
-        <v>0.0007474065641872585</v>
+        <v>0.0001290381042053923</v>
       </c>
       <c r="FR18" t="n">
-        <v>0.0003850413195323199</v>
+        <v>9.953112021321431e-05</v>
       </c>
       <c r="FS18" t="n">
-        <v>0.004335782025009394</v>
+        <v>6.117014709161595e-05</v>
       </c>
       <c r="FT18" t="n">
-        <v>0.001573726534843445</v>
+        <v>0.0001062958617694676</v>
       </c>
       <c r="FU18" t="n">
-        <v>0.002683973405510187</v>
+        <v>0.0001173694327007979</v>
       </c>
       <c r="FV18" t="n">
-        <v>0.0004925968241877854</v>
+        <v>3.559636388672516e-05</v>
       </c>
       <c r="FW18" t="n">
-        <v>0.001354736508801579</v>
+        <v>6.148120883153751e-05</v>
       </c>
       <c r="FX18" t="n">
-        <v>0.0002232035039924085</v>
+        <v>3.437186751398258e-05</v>
       </c>
       <c r="FY18" t="n">
-        <v>0.001014726236462593</v>
+        <v>8.293368591694161e-05</v>
       </c>
       <c r="FZ18" t="n">
-        <v>0.0001779935846570879</v>
+        <v>5.901184340473264e-05</v>
       </c>
       <c r="GA18" t="n">
-        <v>0.0001569797750562429</v>
+        <v>3.358396497787908e-05</v>
       </c>
       <c r="GB18" t="n">
-        <v>0.0003476369311101735</v>
+        <v>5.542150029214099e-05</v>
       </c>
       <c r="GC18" t="n">
-        <v>0.001215991331264377</v>
+        <v>3.633194137364626e-05</v>
       </c>
       <c r="GD18" t="n">
-        <v>0.0005491237388923764</v>
+        <v>0.0001386779767926782</v>
       </c>
       <c r="GE18" t="n">
-        <v>0.001424472313374281</v>
+        <v>0.0001559835800435394</v>
       </c>
       <c r="GF18" t="n">
-        <v>0.0008722901111468673</v>
+        <v>5.881403922103345e-05</v>
       </c>
       <c r="GG18" t="n">
-        <v>0.0006779370014555752</v>
+        <v>9.901988232741132e-05</v>
       </c>
     </row>
     <row r="19">
@@ -11246,571 +11246,571 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.00427887262776494</v>
+        <v>1.550500201119576e-05</v>
       </c>
       <c r="B20" t="n">
-        <v>0.008171908557415009</v>
+        <v>0.0005127161275595427</v>
       </c>
       <c r="C20" t="n">
-        <v>0.01970908790826797</v>
+        <v>6.337924787658267e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01827691867947578</v>
+        <v>0.0001516618358436972</v>
       </c>
       <c r="E20" t="n">
-        <v>0.007035091053694487</v>
+        <v>0.0001039557319018058</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05166439712047577</v>
+        <v>0.0002040562249021605</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01356635615229607</v>
+        <v>5.863129990757443e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.05846679955720901</v>
+        <v>0.0001654067600611597</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01542925462126732</v>
+        <v>7.21042015356943e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005158241838216782</v>
+        <v>8.453101327177137e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001297246664762497</v>
+        <v>0.000461853458546102</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02493526600301266</v>
+        <v>4.308296047383919e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01781832613050938</v>
+        <v>5.423289985628799e-05</v>
       </c>
       <c r="N20" t="n">
-        <v>0.00683268066495657</v>
+        <v>5.222506842983421e-06</v>
       </c>
       <c r="O20" t="n">
-        <v>0.04301279038190842</v>
+        <v>0.0002077783283311874</v>
       </c>
       <c r="P20" t="n">
-        <v>0.00911656953394413</v>
+        <v>8.164947212208062e-05</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.05481306463479996</v>
+        <v>8.28352858661674e-06</v>
       </c>
       <c r="R20" t="n">
-        <v>0.01846113801002502</v>
+        <v>9.726442658575252e-05</v>
       </c>
       <c r="S20" t="n">
-        <v>0.004427405539900064</v>
+        <v>1.385243649565382e-05</v>
       </c>
       <c r="T20" t="n">
-        <v>0.001653236802667379</v>
+        <v>4.34410831076093e-05</v>
       </c>
       <c r="U20" t="n">
-        <v>0.003109987359493971</v>
+        <v>3.263719554524869e-05</v>
       </c>
       <c r="V20" t="n">
-        <v>0.005476568825542927</v>
+        <v>5.444062844617292e-05</v>
       </c>
       <c r="W20" t="n">
-        <v>0.01124740764498711</v>
+        <v>7.546448614448309e-05</v>
       </c>
       <c r="X20" t="n">
-        <v>0.01561799831688404</v>
+        <v>4.873979196418077e-05</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.002829625271260738</v>
+        <v>3.223785461159423e-05</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.002325610024854541</v>
+        <v>7.479009218513966e-05</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.009065316990017891</v>
+        <v>5.217615398578346e-05</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.004217762034386396</v>
+        <v>1.85219178092666e-05</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.00428133737295866</v>
+        <v>2.864547968783882e-05</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.00614205002784729</v>
+        <v>5.46150331501849e-05</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.005785112734884024</v>
+        <v>1.137517301685875e-05</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.01877259276807308</v>
+        <v>3.098430897807702e-05</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.001667467760853469</v>
+        <v>3.695594386954326e-06</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.01880799606442451</v>
+        <v>1.238929326063953e-05</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.004878176841884851</v>
+        <v>5.594977483269759e-05</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.004203140269964933</v>
+        <v>3.823877705144696e-06</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.0007560444064438343</v>
+        <v>6.711645983159542e-05</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.007861040532588959</v>
+        <v>7.233830547193065e-05</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.008187627419829369</v>
+        <v>8.763240657572169e-07</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.0006519430316984653</v>
+        <v>3.026990088983439e-05</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.01557414047420025</v>
+        <v>8.790449101070408e-06</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.00719357468187809</v>
+        <v>7.780272426316515e-05</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.001849839696660638</v>
+        <v>3.534564893925563e-05</v>
       </c>
       <c r="AR20" t="n">
-        <v>0.001888943021185696</v>
+        <v>3.308145824121311e-05</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.001740997191518545</v>
+        <v>5.850791421835311e-05</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.0009299350203946233</v>
+        <v>2.11060068977531e-06</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.01040200982242823</v>
+        <v>0.0003038653521798551</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.01087927166372538</v>
+        <v>5.091091952635907e-05</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.002381470520049334</v>
+        <v>4.984075712854974e-05</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.005463757086545229</v>
+        <v>6.034021498635411e-05</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.02997786179184914</v>
+        <v>0.0001337895228061825</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.002323108725249767</v>
+        <v>0.0001140639142249711</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.02892833948135376</v>
+        <v>9.366867016069591e-05</v>
       </c>
       <c r="BB20" t="n">
-        <v>0.008025200106203556</v>
+        <v>9.217942715622485e-05</v>
       </c>
       <c r="BC20" t="n">
-        <v>0.003478301456198096</v>
+        <v>5.515677912626415e-06</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.005868838168680668</v>
+        <v>0.0001148059964179993</v>
       </c>
       <c r="BE20" t="n">
-        <v>0.009213887155056</v>
+        <v>0.000111396650027018</v>
       </c>
       <c r="BF20" t="n">
-        <v>0.01943791098892689</v>
+        <v>4.098389035789296e-05</v>
       </c>
       <c r="BG20" t="n">
-        <v>0.007261424325406551</v>
+        <v>2.821465750457719e-05</v>
       </c>
       <c r="BH20" t="n">
-        <v>0.005851371679455042</v>
+        <v>5.131209763931111e-05</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.01173354499042034</v>
+        <v>4.04457314289175e-05</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.01782691478729248</v>
+        <v>7.937414920888841e-05</v>
       </c>
       <c r="BK20" t="n">
-        <v>0.003574250033125281</v>
+        <v>6.564881186932325e-05</v>
       </c>
       <c r="BL20" t="n">
-        <v>0.006019053515046835</v>
+        <v>2.923755710071418e-05</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.003890052903443575</v>
+        <v>5.302226418280043e-05</v>
       </c>
       <c r="BN20" t="n">
-        <v>0.007359154522418976</v>
+        <v>5.144297392689623e-05</v>
       </c>
       <c r="BO20" t="n">
-        <v>0.001089846948161721</v>
+        <v>2.097095057251863e-05</v>
       </c>
       <c r="BP20" t="n">
-        <v>2.346106339246035e-05</v>
+        <v>9.34138097363757e-06</v>
       </c>
       <c r="BQ20" t="n">
-        <v>0.002995764138177037</v>
+        <v>2.747930557234213e-05</v>
       </c>
       <c r="BR20" t="n">
-        <v>0.009521902538836002</v>
+        <v>6.072054384276271e-05</v>
       </c>
       <c r="BS20" t="n">
-        <v>0.0009111899416893721</v>
+        <v>2.359173595323227e-05</v>
       </c>
       <c r="BT20" t="n">
-        <v>0.006743174046278</v>
+        <v>1.286608494410757e-05</v>
       </c>
       <c r="BU20" t="n">
-        <v>0.007578202057629824</v>
+        <v>4.478342816582881e-06</v>
       </c>
       <c r="BV20" t="n">
-        <v>0.005027834326028824</v>
+        <v>0.0001835147850215435</v>
       </c>
       <c r="BW20" t="n">
-        <v>0.00248234486207366</v>
+        <v>6.831232167314738e-05</v>
       </c>
       <c r="BX20" t="n">
-        <v>0.001020556315779686</v>
+        <v>4.874527803622186e-06</v>
       </c>
       <c r="BY20" t="n">
-        <v>0.009597842581570148</v>
+        <v>4.175885260337964e-05</v>
       </c>
       <c r="BZ20" t="n">
-        <v>0.01317976973950863</v>
+        <v>5.938156027696095e-05</v>
       </c>
       <c r="CA20" t="n">
-        <v>0.007631786167621613</v>
+        <v>4.064586391905323e-07</v>
       </c>
       <c r="CB20" t="n">
-        <v>0.01879769936203957</v>
+        <v>2.380634941800963e-05</v>
       </c>
       <c r="CC20" t="n">
-        <v>0.005670647136867046</v>
+        <v>6.062912871129811e-05</v>
       </c>
       <c r="CD20" t="n">
-        <v>0.004659414291381836</v>
+        <v>4.333895049057901e-06</v>
       </c>
       <c r="CE20" t="n">
-        <v>0.01001689024269581</v>
+        <v>9.143551869783551e-05</v>
       </c>
       <c r="CF20" t="n">
-        <v>0.005381014198064804</v>
+        <v>4.460943819140084e-05</v>
       </c>
       <c r="CG20" t="n">
-        <v>0.005159772932529449</v>
+        <v>2.722478348005097e-05</v>
       </c>
       <c r="CH20" t="n">
-        <v>0.002259267959743738</v>
+        <v>1.5124591300264e-05</v>
       </c>
       <c r="CI20" t="n">
-        <v>0.009042845107614994</v>
+        <v>1.248045191459823e-05</v>
       </c>
       <c r="CJ20" t="n">
-        <v>0.001205274020321667</v>
+        <v>3.460405423538759e-05</v>
       </c>
       <c r="CK20" t="n">
-        <v>0.008452052250504494</v>
+        <v>2.234468774986453e-05</v>
       </c>
       <c r="CL20" t="n">
-        <v>0.00160254118964076</v>
+        <v>4.904501838609576e-05</v>
       </c>
       <c r="CM20" t="n">
-        <v>0.01279902085661888</v>
+        <v>6.316610233625397e-05</v>
       </c>
       <c r="CN20" t="n">
-        <v>0.0008700831676833332</v>
+        <v>5.410677840700373e-05</v>
       </c>
       <c r="CO20" t="n">
-        <v>0.006093376781791449</v>
+        <v>1.369095298286993e-05</v>
       </c>
       <c r="CP20" t="n">
-        <v>0.01057625468820333</v>
+        <v>0.0001347056968370453</v>
       </c>
       <c r="CQ20" t="n">
-        <v>0.02200476080179214</v>
+        <v>6.840496644144878e-05</v>
       </c>
       <c r="CR20" t="n">
-        <v>0.007506544701755047</v>
+        <v>6.915810809005052e-05</v>
       </c>
       <c r="CS20" t="n">
-        <v>0.006361491978168488</v>
+        <v>9.991737169912085e-05</v>
       </c>
       <c r="CT20" t="n">
-        <v>0.009143969975411892</v>
+        <v>6.914306140970439e-05</v>
       </c>
       <c r="CU20" t="n">
-        <v>0.007070860825479031</v>
+        <v>3.706922143464908e-05</v>
       </c>
       <c r="CV20" t="n">
-        <v>0.004304167348891497</v>
+        <v>4.805613116332097e-06</v>
       </c>
       <c r="CW20" t="n">
-        <v>0.01450374349951744</v>
+        <v>8.137537952279672e-05</v>
       </c>
       <c r="CX20" t="n">
-        <v>0.005586729850620031</v>
+        <v>4.979349614586681e-05</v>
       </c>
       <c r="CY20" t="n">
-        <v>0.003330697305500507</v>
+        <v>5.326647806214169e-05</v>
       </c>
       <c r="CZ20" t="n">
-        <v>0.003723805071786046</v>
+        <v>2.218765075667761e-05</v>
       </c>
       <c r="DA20" t="n">
-        <v>0.009232260286808014</v>
+        <v>1.267427796847187e-05</v>
       </c>
       <c r="DB20" t="n">
-        <v>0.000133541296236217</v>
+        <v>3.727547300513834e-05</v>
       </c>
       <c r="DC20" t="n">
-        <v>0.01151254214346409</v>
+        <v>4.259499837644398e-05</v>
       </c>
       <c r="DD20" t="n">
-        <v>0.002368953078985214</v>
+        <v>4.313770841690712e-05</v>
       </c>
       <c r="DE20" t="n">
-        <v>0.007932727225124836</v>
+        <v>4.709084532805718e-05</v>
       </c>
       <c r="DF20" t="n">
-        <v>0.004638916812837124</v>
+        <v>8.267715747933835e-05</v>
       </c>
       <c r="DG20" t="n">
-        <v>0.005679621826857328</v>
+        <v>5.540507117984816e-06</v>
       </c>
       <c r="DH20" t="n">
-        <v>0.0116496505215764</v>
+        <v>0.0002361258084420115</v>
       </c>
       <c r="DI20" t="n">
-        <v>0.01155029982328415</v>
+        <v>0.0001252373185707256</v>
       </c>
       <c r="DJ20" t="n">
-        <v>0.01258105784654617</v>
+        <v>0.0001785626373020932</v>
       </c>
       <c r="DK20" t="n">
-        <v>0.007766907103359699</v>
+        <v>7.847024244256318e-05</v>
       </c>
       <c r="DL20" t="n">
-        <v>0.003079690970480442</v>
+        <v>8.302400965476409e-05</v>
       </c>
       <c r="DM20" t="n">
-        <v>0.01016868930310011</v>
+        <v>7.895268936408684e-05</v>
       </c>
       <c r="DN20" t="n">
-        <v>0.00731905410066247</v>
+        <v>2.19997873500688e-05</v>
       </c>
       <c r="DO20" t="n">
-        <v>0.00013848947128281</v>
+        <v>3.492371615720913e-05</v>
       </c>
       <c r="DP20" t="n">
-        <v>0.002920703496783972</v>
+        <v>4.08498672186397e-05</v>
       </c>
       <c r="DQ20" t="n">
-        <v>0.008196916431188583</v>
+        <v>1.452378364774631e-05</v>
       </c>
       <c r="DR20" t="n">
-        <v>0.002125338651239872</v>
+        <v>7.696282409597188e-06</v>
       </c>
       <c r="DS20" t="n">
-        <v>0.004710773471742868</v>
+        <v>3.262631798861548e-05</v>
       </c>
       <c r="DT20" t="n">
-        <v>0.002936794655397534</v>
+        <v>4.44957877334673e-05</v>
       </c>
       <c r="DU20" t="n">
-        <v>0.001061913906596601</v>
+        <v>2.893889723054599e-05</v>
       </c>
       <c r="DV20" t="n">
-        <v>0.00206792214885354</v>
+        <v>2.481209412508179e-05</v>
       </c>
       <c r="DW20" t="n">
-        <v>0.005598908290266991</v>
+        <v>1.562979196023662e-05</v>
       </c>
       <c r="DX20" t="n">
-        <v>0.0005095468368381262</v>
+        <v>2.909154864028096e-05</v>
       </c>
       <c r="DY20" t="n">
-        <v>0.001222243998199701</v>
+        <v>5.810468428535387e-05</v>
       </c>
       <c r="DZ20" t="n">
-        <v>0.002057267352938652</v>
+        <v>3.435821054154076e-05</v>
       </c>
       <c r="EA20" t="n">
-        <v>0.002261670771986246</v>
+        <v>5.356703695724718e-06</v>
       </c>
       <c r="EB20" t="n">
-        <v>0.002482312032952905</v>
+        <v>3.168445618939586e-05</v>
       </c>
       <c r="EC20" t="n">
-        <v>0.002166826510801911</v>
+        <v>6.247513738344423e-06</v>
       </c>
       <c r="ED20" t="n">
-        <v>0.002774791792035103</v>
+        <v>2.282685454702005e-05</v>
       </c>
       <c r="EE20" t="n">
-        <v>0.002297766041010618</v>
+        <v>7.910808926681057e-05</v>
       </c>
       <c r="EF20" t="n">
-        <v>0.01212385017424822</v>
+        <v>2.399622280790936e-05</v>
       </c>
       <c r="EG20" t="n">
-        <v>0.01192043349146843</v>
+        <v>9.34709096327424e-05</v>
       </c>
       <c r="EH20" t="n">
-        <v>0.005379117093980312</v>
+        <v>1.443707515136339e-05</v>
       </c>
       <c r="EI20" t="n">
-        <v>0.004667967557907104</v>
+        <v>1.873192377388477e-05</v>
       </c>
       <c r="EJ20" t="n">
-        <v>0.002986112609505653</v>
+        <v>6.345194560708478e-05</v>
       </c>
       <c r="EK20" t="n">
-        <v>0.002572288969531655</v>
+        <v>3.368274337844923e-05</v>
       </c>
       <c r="EL20" t="n">
-        <v>8.689431706443429e-05</v>
+        <v>4.337088466854766e-05</v>
       </c>
       <c r="EM20" t="n">
-        <v>0.01082182116806507</v>
+        <v>3.571959496184718e-06</v>
       </c>
       <c r="EN20" t="n">
-        <v>0.003016820177435875</v>
+        <v>2.315322490176186e-05</v>
       </c>
       <c r="EO20" t="n">
-        <v>0.002991028130054474</v>
+        <v>1.101165253203362e-06</v>
       </c>
       <c r="EP20" t="n">
-        <v>0.008668716065585613</v>
+        <v>5.238272569840774e-05</v>
       </c>
       <c r="EQ20" t="n">
-        <v>0.005272791255265474</v>
+        <v>9.8613221780397e-05</v>
       </c>
       <c r="ER20" t="n">
-        <v>0.007101445458829403</v>
+        <v>9.846196189755574e-05</v>
       </c>
       <c r="ES20" t="n">
-        <v>0.01517020165920258</v>
+        <v>6.801622657803819e-05</v>
       </c>
       <c r="ET20" t="n">
-        <v>0.0046989805996418</v>
+        <v>2.138650415872689e-05</v>
       </c>
       <c r="EU20" t="n">
-        <v>0.002178699010983109</v>
+        <v>9.631617285776883e-05</v>
       </c>
       <c r="EV20" t="n">
-        <v>0.007706980220973492</v>
+        <v>0.0001037563342833892</v>
       </c>
       <c r="EW20" t="n">
-        <v>0.0006591766141355038</v>
+        <v>7.995271516847424e-06</v>
       </c>
       <c r="EX20" t="n">
-        <v>0.005201081279665232</v>
+        <v>1.623555817786837e-06</v>
       </c>
       <c r="EY20" t="n">
-        <v>0.01298078708350658</v>
+        <v>7.884585647843778e-05</v>
       </c>
       <c r="EZ20" t="n">
-        <v>0.005170253105461597</v>
+        <v>3.979816028731875e-05</v>
       </c>
       <c r="FA20" t="n">
-        <v>0.005190096329897642</v>
+        <v>1.582194636284839e-05</v>
       </c>
       <c r="FB20" t="n">
-        <v>0.005015821196138859</v>
+        <v>3.052682586712763e-05</v>
       </c>
       <c r="FC20" t="n">
-        <v>0.009227052330970764</v>
+        <v>1.422074547008378e-05</v>
       </c>
       <c r="FD20" t="n">
-        <v>0.001075537991710007</v>
+        <v>6.408242916222662e-05</v>
       </c>
       <c r="FE20" t="n">
-        <v>0.01087865419685841</v>
+        <v>4.306792834540829e-05</v>
       </c>
       <c r="FF20" t="n">
-        <v>0.0002647286164574325</v>
+        <v>5.967739707557485e-05</v>
       </c>
       <c r="FG20" t="n">
-        <v>0.005165803711861372</v>
+        <v>2.351411603740416e-05</v>
       </c>
       <c r="FH20" t="n">
-        <v>0.01324980519711971</v>
+        <v>1.828174845286412e-06</v>
       </c>
       <c r="FI20" t="n">
-        <v>0.002802630653604865</v>
+        <v>8.790862193563953e-05</v>
       </c>
       <c r="FJ20" t="n">
-        <v>0.004868155345320702</v>
+        <v>4.875326339970343e-05</v>
       </c>
       <c r="FK20" t="n">
-        <v>0.004553576000034809</v>
+        <v>1.437653918401338e-05</v>
       </c>
       <c r="FL20" t="n">
-        <v>0.01127100177109241</v>
+        <v>1.69077429745812e-05</v>
       </c>
       <c r="FM20" t="n">
-        <v>0.0006432507652789354</v>
+        <v>4.077191624674015e-05</v>
       </c>
       <c r="FN20" t="n">
-        <v>0.006430337205529213</v>
+        <v>3.293580812169239e-05</v>
       </c>
       <c r="FO20" t="n">
-        <v>0.002855705330148339</v>
+        <v>4.139136945013888e-05</v>
       </c>
       <c r="FP20" t="n">
-        <v>0.004746660590171814</v>
+        <v>4.008326504845172e-05</v>
       </c>
       <c r="FQ20" t="n">
-        <v>0.005876768846064806</v>
+        <v>2.855907223420218e-05</v>
       </c>
       <c r="FR20" t="n">
-        <v>0.001647647237405181</v>
+        <v>7.860719779273495e-05</v>
       </c>
       <c r="FS20" t="n">
-        <v>0.02176328748464584</v>
+        <v>8.9776556706056e-05</v>
       </c>
       <c r="FT20" t="n">
-        <v>0.0003649219870567322</v>
+        <v>7.26435609976761e-05</v>
       </c>
       <c r="FU20" t="n">
-        <v>0.02026067860424519</v>
+        <v>3.845117316814139e-05</v>
       </c>
       <c r="FV20" t="n">
-        <v>0.000647135719191283</v>
+        <v>7.942298543639481e-05</v>
       </c>
       <c r="FW20" t="n">
-        <v>0.01278846990317106</v>
+        <v>3.632399966591038e-06</v>
       </c>
       <c r="FX20" t="n">
-        <v>0.00479127187281847</v>
+        <v>3.311339241918176e-05</v>
       </c>
       <c r="FY20" t="n">
-        <v>0.002012664917856455</v>
+        <v>0.0001021419302560389</v>
       </c>
       <c r="FZ20" t="n">
-        <v>0.005137400701642036</v>
+        <v>2.034310637100134e-05</v>
       </c>
       <c r="GA20" t="n">
-        <v>0.00029949308373034</v>
+        <v>5.030962347518653e-05</v>
       </c>
       <c r="GB20" t="n">
-        <v>0.0004638863611035049</v>
+        <v>3.197345722583123e-05</v>
       </c>
       <c r="GC20" t="n">
-        <v>0.002261398360133171</v>
+        <v>2.05206852115225e-05</v>
       </c>
       <c r="GD20" t="n">
-        <v>0.0065308827906847</v>
+        <v>5.581208097282797e-05</v>
       </c>
       <c r="GE20" t="n">
-        <v>0.005478216335177422</v>
+        <v>0.0001436285092495382</v>
       </c>
       <c r="GF20" t="n">
-        <v>0.0007235158700495958</v>
+        <v>1.074353531294037e-05</v>
       </c>
       <c r="GG20" t="n">
-        <v>0.00374473468400538</v>
+        <v>1.246677766175708e-05</v>
       </c>
     </row>
   </sheetData>
